--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446E208E-4C2A-473C-9434-E2247334E6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACAC9A1-8253-4C91-BAAB-0A1F5123E104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="6660" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="9225" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2327,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
   <dimension ref="A1:J219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8917,8 +8917,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACAC9A1-8253-4C91-BAAB-0A1F5123E104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8130F1-EBE2-47DC-A349-1497354B9594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4995" yWindow="9225" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="34">
   <si>
     <t>Бицепс</t>
   </si>
@@ -227,11 +227,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1374,8 +1375,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I219" totalsRowShown="0">
-  <autoFilter ref="A1:I219" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I243" totalsRowShown="0">
+  <autoFilter ref="A1:I243" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1656,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F3:U23"/>
+  <dimension ref="F9:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,35 +1669,12 @@
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="L3">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="L4">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
       <c r="I9">
         <v>0.55700000000000005</v>
       </c>
-      <c r="U9">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="10" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="U10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="U11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
       <c r="I12">
         <f>0.36+0.0015*EXP((I9-0.71)/0.035)+0.65*EXP((I9-0.71)/0.16)</f>
         <v>0.60983437919341332</v>
@@ -1705,7 +1683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>39.5</v>
       </c>
@@ -1721,7 +1699,7 @@
         <v>643.98510442824443</v>
       </c>
     </row>
-    <row r="16" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>1</v>
       </c>
@@ -1732,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>0.95</v>
       </c>
@@ -1744,7 +1722,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>0.85</v>
       </c>
@@ -1756,7 +1734,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>0.75</v>
       </c>
@@ -1768,7 +1746,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>0.65</v>
       </c>
@@ -1780,7 +1758,7 @@
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="21" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>0.55000000000000004</v>
       </c>
@@ -1801,13 +1779,26 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>27</v>
+      </c>
       <c r="L23">
-        <v>0.55000000000000004</v>
+        <v>0.71</v>
       </c>
       <c r="M23">
         <f>M21*L23^2-N21*L23+O21</f>
-        <v>21.960999999999999</v>
+        <v>11.984040000000007</v>
+      </c>
+      <c r="Q23">
+        <f>J23/L23</f>
+        <v>38.028169014084511</v>
+      </c>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <f>J23*1.4</f>
+        <v>37.799999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2325,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,6 +8905,726 @@
         <v>8</v>
       </c>
     </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <f t="shared" ref="A220:A243" si="4">A219+1</f>
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>33</v>
+      </c>
+      <c r="C220">
+        <v>5</v>
+      </c>
+      <c r="D220" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E220">
+        <v>24.5</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+      <c r="G220">
+        <v>120</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+      <c r="D221" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E221">
+        <v>24.5</v>
+      </c>
+      <c r="F221">
+        <v>10</v>
+      </c>
+      <c r="G221">
+        <v>120</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <f t="shared" si="4"/>
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+      <c r="D222" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E222">
+        <v>24.5</v>
+      </c>
+      <c r="F222">
+        <v>10</v>
+      </c>
+      <c r="G222">
+        <v>120</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <f t="shared" si="4"/>
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E223">
+        <v>24.5</v>
+      </c>
+      <c r="F223">
+        <v>14</v>
+      </c>
+      <c r="G223">
+        <v>120</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <f t="shared" si="4"/>
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E224">
+        <v>22</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+      <c r="G224">
+        <v>120</v>
+      </c>
+      <c r="H224">
+        <v>5</v>
+      </c>
+      <c r="I224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E225">
+        <v>22</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+      <c r="G225">
+        <v>120</v>
+      </c>
+      <c r="H225">
+        <v>6</v>
+      </c>
+      <c r="I225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <f t="shared" si="4"/>
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226">
+        <v>5</v>
+      </c>
+      <c r="D226" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E226">
+        <v>22</v>
+      </c>
+      <c r="F226">
+        <v>10</v>
+      </c>
+      <c r="G226">
+        <v>120</v>
+      </c>
+      <c r="H226">
+        <v>7</v>
+      </c>
+      <c r="I226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <f t="shared" si="4"/>
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E227">
+        <v>22</v>
+      </c>
+      <c r="F227">
+        <v>10</v>
+      </c>
+      <c r="G227">
+        <v>120</v>
+      </c>
+      <c r="H227">
+        <v>8</v>
+      </c>
+      <c r="I227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228">
+        <v>5</v>
+      </c>
+      <c r="D228" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E228">
+        <v>17</v>
+      </c>
+      <c r="F228">
+        <v>10</v>
+      </c>
+      <c r="G228">
+        <v>120</v>
+      </c>
+      <c r="H228">
+        <v>9</v>
+      </c>
+      <c r="I228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229">
+        <v>5</v>
+      </c>
+      <c r="D229" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E229">
+        <v>17</v>
+      </c>
+      <c r="F229">
+        <v>10</v>
+      </c>
+      <c r="G229">
+        <v>120</v>
+      </c>
+      <c r="H229">
+        <v>10</v>
+      </c>
+      <c r="I229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <f t="shared" si="4"/>
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E230">
+        <v>17</v>
+      </c>
+      <c r="F230">
+        <v>10</v>
+      </c>
+      <c r="G230">
+        <v>120</v>
+      </c>
+      <c r="H230">
+        <v>11</v>
+      </c>
+      <c r="I230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>33</v>
+      </c>
+      <c r="C231">
+        <v>5</v>
+      </c>
+      <c r="D231" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E231">
+        <v>17</v>
+      </c>
+      <c r="F231">
+        <v>14</v>
+      </c>
+      <c r="G231">
+        <v>120</v>
+      </c>
+      <c r="H231">
+        <v>12</v>
+      </c>
+      <c r="I231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <f t="shared" si="4"/>
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232">
+        <v>5</v>
+      </c>
+      <c r="D232" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E232">
+        <v>17</v>
+      </c>
+      <c r="F232">
+        <v>10</v>
+      </c>
+      <c r="G232">
+        <v>120</v>
+      </c>
+      <c r="H232">
+        <v>13</v>
+      </c>
+      <c r="I232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <f t="shared" si="4"/>
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E233">
+        <v>17</v>
+      </c>
+      <c r="F233">
+        <v>10</v>
+      </c>
+      <c r="G233">
+        <v>120</v>
+      </c>
+      <c r="H233">
+        <v>14</v>
+      </c>
+      <c r="I233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <f t="shared" si="4"/>
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>33</v>
+      </c>
+      <c r="C234">
+        <v>5</v>
+      </c>
+      <c r="D234" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E234">
+        <v>17</v>
+      </c>
+      <c r="F234">
+        <v>10</v>
+      </c>
+      <c r="G234">
+        <v>120</v>
+      </c>
+      <c r="H234">
+        <v>15</v>
+      </c>
+      <c r="I234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E235">
+        <v>17</v>
+      </c>
+      <c r="F235">
+        <v>8</v>
+      </c>
+      <c r="G235">
+        <v>120</v>
+      </c>
+      <c r="H235">
+        <v>16</v>
+      </c>
+      <c r="I235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <f t="shared" si="4"/>
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>26</v>
+      </c>
+      <c r="C236">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
+      </c>
+      <c r="F236">
+        <v>10</v>
+      </c>
+      <c r="G236">
+        <v>120</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <f t="shared" si="4"/>
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>26</v>
+      </c>
+      <c r="C237">
+        <v>5</v>
+      </c>
+      <c r="D237" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E237">
+        <v>27</v>
+      </c>
+      <c r="F237">
+        <v>10</v>
+      </c>
+      <c r="G237">
+        <v>120</v>
+      </c>
+      <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <f t="shared" si="4"/>
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
+      </c>
+      <c r="F238">
+        <v>10</v>
+      </c>
+      <c r="G238">
+        <v>120</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <f t="shared" si="4"/>
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239">
+        <v>5</v>
+      </c>
+      <c r="D239" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E239">
+        <v>27</v>
+      </c>
+      <c r="F239">
+        <v>10</v>
+      </c>
+      <c r="G239">
+        <v>120</v>
+      </c>
+      <c r="H239">
+        <v>4</v>
+      </c>
+      <c r="I239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <f t="shared" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>26</v>
+      </c>
+      <c r="C240">
+        <v>5</v>
+      </c>
+      <c r="D240" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
+      </c>
+      <c r="F240">
+        <v>10</v>
+      </c>
+      <c r="G240">
+        <v>120</v>
+      </c>
+      <c r="H240">
+        <v>5</v>
+      </c>
+      <c r="I240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>26</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+      <c r="D241" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
+      </c>
+      <c r="F241">
+        <v>10</v>
+      </c>
+      <c r="G241">
+        <v>120</v>
+      </c>
+      <c r="H241">
+        <v>6</v>
+      </c>
+      <c r="I241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>26</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E242">
+        <v>22</v>
+      </c>
+      <c r="F242">
+        <v>10</v>
+      </c>
+      <c r="G242">
+        <v>120</v>
+      </c>
+      <c r="H242">
+        <v>7</v>
+      </c>
+      <c r="I242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E243">
+        <v>22</v>
+      </c>
+      <c r="F243">
+        <v>10</v>
+      </c>
+      <c r="G243">
+        <v>120</v>
+      </c>
+      <c r="H243">
+        <v>8</v>
+      </c>
+      <c r="I243" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8130F1-EBE2-47DC-A349-1497354B9594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E59B75-CA36-4D51-AFC4-0C6613663D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2070" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="41">
   <si>
     <t>Бицепс</t>
   </si>
@@ -175,6 +175,27 @@
   <si>
     <t>Французcкий жим стоя</t>
   </si>
+  <si>
+    <t>Кооф</t>
+  </si>
+  <si>
+    <t>% от 1 ПМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таблица зависимости % от ПМ </t>
+  </si>
+  <si>
+    <t>% от ПМ</t>
+  </si>
+  <si>
+    <t>кол. повтор.</t>
+  </si>
+  <si>
+    <t>Кол. пов</t>
+  </si>
+  <si>
+    <t>Нагруз. на 1 пов.</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +226,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -222,17 +252,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1657,33 +1805,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F9:Q25"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9">
+        <v>54.4</v>
+      </c>
+      <c r="C1" s="9">
+        <v>130.9</v>
+      </c>
+      <c r="D1" s="10">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="13">
+        <f>B1*B3^2-C1*B3+D1</f>
+        <v>48.174999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="15">
+        <f>1/B9</f>
+        <v>0.4</v>
+      </c>
       <c r="I9">
-        <v>0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="C10" s="15">
+        <f>1/B10</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="U10">
+        <v>0.95</v>
+      </c>
+      <c r="V10">
+        <v>11.75</v>
+      </c>
+      <c r="W10">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" ref="C10:C13" si="0">1/B11</f>
+        <v>0.1</v>
+      </c>
+      <c r="U11">
+        <v>0.85</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="B12" s="15">
+        <v>15.5</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
       <c r="I12">
         <f>0.36+0.0015*EXP((I9-0.71)/0.035)+0.65*EXP((I9-0.71)/0.16)</f>
-        <v>0.60983437919341332</v>
+        <v>0.39667049361659973</v>
       </c>
       <c r="L12">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <v>0.75</v>
+      </c>
+      <c r="V12">
+        <v>12</v>
+      </c>
+      <c r="W12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13" s="15">
+        <v>22</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
       <c r="L13">
         <v>39.5</v>
       </c>
@@ -1696,113 +1996,65 @@
       </c>
       <c r="O13">
         <f>I12*N13*L12</f>
-        <v>643.98510442824443</v>
-      </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17">
-        <v>0.95</v>
-      </c>
-      <c r="G17">
-        <v>2.5</v>
-      </c>
-      <c r="H17">
-        <f>1/G17</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>0.85</v>
-      </c>
-      <c r="G18">
-        <v>5.5</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H21" si="0">1/G18</f>
-        <v>0.18181818181818182</v>
-      </c>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <v>0.75</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F20">
+        <v>418.88404125912933</v>
+      </c>
+      <c r="U13">
         <v>0.65</v>
       </c>
-      <c r="G20">
-        <v>15.5</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F21">
+      <c r="V13">
+        <v>12.5</v>
+      </c>
+      <c r="W13">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G21">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="M21">
-        <v>54.4</v>
-      </c>
-      <c r="N21">
-        <v>130.9</v>
-      </c>
-      <c r="O21">
-        <v>77.5</v>
-      </c>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <v>27</v>
-      </c>
-      <c r="L23">
-        <v>0.71</v>
-      </c>
-      <c r="M23">
-        <f>M21*L23^2-N21*L23+O21</f>
-        <v>11.984040000000007</v>
-      </c>
-      <c r="Q23">
-        <f>J23/L23</f>
-        <v>38.028169014084511</v>
-      </c>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="Q25">
-        <f>J23*1.4</f>
-        <v>37.799999999999997</v>
+      <c r="V14">
+        <v>13.2</v>
+      </c>
+      <c r="W14">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0.45</v>
+      </c>
+      <c r="V15">
+        <v>14.4</v>
+      </c>
+      <c r="W15">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0.35</v>
+      </c>
+      <c r="V16">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W16">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="21:23" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0.25</v>
+      </c>
+      <c r="V17">
+        <v>19.3</v>
+      </c>
+      <c r="W17">
+        <v>19.100000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2318,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
   <dimension ref="A1:J243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+    <sheetView topLeftCell="A229" workbookViewId="0">
       <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E59B75-CA36-4D51-AFC4-0C6613663D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D3B1E-18BD-4C93-BB49-922D379A111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2415" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист4" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!#REF!</definedName>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>Нагруз. на 1 пов.</t>
+  </si>
+  <si>
+    <t>упражнение</t>
   </si>
 </sst>
 </file>
@@ -364,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -381,6 +385,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1523,8 +1529,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I243" totalsRowShown="0">
-  <autoFilter ref="A1:I243" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I259" totalsRowShown="0">
+  <autoFilter ref="A1:I259" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Подъем т-грифа на бицепс"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1807,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,14 +1857,14 @@
         <v>35</v>
       </c>
       <c r="B3" s="12">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="13">
         <f>B1*B3^2-C1*B3+D1</f>
-        <v>48.174999999999997</v>
+        <v>71.090999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1894,7 +1906,7 @@
         <v>0.4</v>
       </c>
       <c r="I9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -1932,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="15">
-        <f t="shared" ref="C10:C13" si="0">1/B11</f>
+        <f t="shared" ref="C11:C13" si="0">1/B11</f>
         <v>0.1</v>
       </c>
       <c r="U11">
@@ -1958,7 +1970,7 @@
       </c>
       <c r="I12">
         <f>0.36+0.0015*EXP((I9-0.71)/0.035)+0.65*EXP((I9-0.71)/0.16)</f>
-        <v>0.39667049361659973</v>
+        <v>0.3705062714920026</v>
       </c>
       <c r="L12">
         <v>22</v>
@@ -1996,7 +2008,7 @@
       </c>
       <c r="O13">
         <f>I12*N13*L12</f>
-        <v>418.88404125912933</v>
+        <v>391.25462269555476</v>
       </c>
       <c r="U13">
         <v>0.65</v>
@@ -2567,11 +2579,254 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9CF9D-18EF-4E6C-9F32-F7B653F1E1C8}">
+  <dimension ref="A2:P9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17">
+        <v>4</v>
+      </c>
+      <c r="F2" s="17">
+        <v>5</v>
+      </c>
+      <c r="G2" s="17">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17">
+        <v>7</v>
+      </c>
+      <c r="I2" s="17">
+        <v>8</v>
+      </c>
+      <c r="J2" s="17">
+        <v>9</v>
+      </c>
+      <c r="K2" s="17">
+        <v>10</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="D3" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="F3" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="E4" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="F4" s="15">
+        <v>39.5</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="D5" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="E5" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="F5" s="15">
+        <v>34.5</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>17.5</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="E9" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="F9" s="15">
+        <v>29.5</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J243"/>
+  <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="I244" sqref="I244"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,7 +2991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2766,7 +3021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2796,7 +3051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2826,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2856,7 +3111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2886,7 +3141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2916,7 +3171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2946,7 +3201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2976,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3006,7 +3261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3036,7 +3291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3066,7 +3321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3096,7 +3351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3126,7 +3381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3156,7 +3411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3187,7 +3442,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3217,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3247,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3277,7 +3532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3307,7 +3562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3457,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3487,7 +3742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3517,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3547,7 +3802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3577,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3607,7 +3862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3637,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3667,7 +3922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3697,7 +3952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3727,7 +3982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3757,7 +4012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3787,7 +4042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3817,7 +4072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3847,7 +4102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3877,7 +4132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3907,7 +4162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3937,7 +4192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3967,7 +4222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3997,7 +4252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4027,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4177,7 +4432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4207,7 +4462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4237,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4267,7 +4522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4297,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4327,7 +4582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4357,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4387,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4537,7 +4792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A129" si="1">A65+1</f>
         <v>65</v>
@@ -4567,7 +4822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4597,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4627,7 +4882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4657,7 +4912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4687,7 +4942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4717,7 +4972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4747,7 +5002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5257,7 +5512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5287,7 +5542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5317,7 +5572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5347,7 +5602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5377,7 +5632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5407,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5437,7 +5692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5467,7 +5722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5497,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5527,7 +5782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5557,7 +5812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5587,7 +5842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5617,7 +5872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5647,7 +5902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5677,7 +5932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5707,7 +5962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5737,7 +5992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -5767,7 +6022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -5797,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -5827,7 +6082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -5857,7 +6112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -5887,7 +6142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -5917,7 +6172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5947,7 +6202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5977,7 +6232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6007,7 +6262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6037,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6067,7 +6322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6097,7 +6352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6127,7 +6382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6157,7 +6412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6187,7 +6442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6217,7 +6472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -6247,7 +6502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -6757,7 +7012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -6787,7 +7042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -6817,7 +7072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -6847,7 +7102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -6877,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -6907,7 +7162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -6937,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -6967,7 +7222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -6997,7 +7252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7027,7 +7282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7057,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7087,7 +7342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7117,7 +7372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7147,7 +7402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7177,7 +7432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7207,7 +7462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7237,7 +7492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7267,7 +7522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7297,7 +7552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7327,7 +7582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7357,7 +7612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7387,7 +7642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7417,7 +7672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7447,7 +7702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7477,7 +7732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7507,7 +7762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7537,7 +7792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7567,7 +7822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7597,7 +7852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7627,7 +7882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7657,7 +7912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7687,7 +7942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7717,7 +7972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -7747,7 +8002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -7777,7 +8032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -7807,7 +8062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -7837,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -7867,7 +8122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -7897,7 +8152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -7927,7 +8182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -7957,7 +8212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -7987,7 +8242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8017,7 +8272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8047,7 +8302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8077,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8107,7 +8362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8137,7 +8392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8167,7 +8422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8197,7 +8452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8227,7 +8482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8257,7 +8512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8287,7 +8542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -8797,7 +9052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -8827,7 +9082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -8857,7 +9112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -8887,7 +9142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -8917,7 +9172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -8947,7 +9202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -8977,7 +9232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -9007,7 +9262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -9037,7 +9292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -9067,7 +9322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -9097,7 +9352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -9127,7 +9382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -9157,7 +9412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f t="shared" ref="A220:A243" si="4">A219+1</f>
         <v>219</v>
@@ -9187,7 +9442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f t="shared" si="4"/>
         <v>220</v>
@@ -9217,7 +9472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f t="shared" si="4"/>
         <v>221</v>
@@ -9247,7 +9502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f t="shared" si="4"/>
         <v>222</v>
@@ -9277,7 +9532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f t="shared" si="4"/>
         <v>223</v>
@@ -9307,7 +9562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="4"/>
         <v>224</v>
@@ -9337,7 +9592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f t="shared" si="4"/>
         <v>225</v>
@@ -9367,7 +9622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f t="shared" si="4"/>
         <v>226</v>
@@ -9397,7 +9652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f t="shared" si="4"/>
         <v>227</v>
@@ -9427,7 +9682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -9457,7 +9712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -9487,7 +9742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -9517,7 +9772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -9547,7 +9802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -9577,7 +9832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -9607,7 +9862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -9637,7 +9892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -9667,7 +9922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -9697,7 +9952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -9727,7 +9982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -9757,7 +10012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -9787,7 +10042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -9817,7 +10072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -9847,7 +10102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="4"/>
         <v>242</v>
@@ -9875,6 +10130,486 @@
       </c>
       <c r="I243" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <f t="shared" ref="A244:A259" si="5">A243+1</f>
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E244">
+        <v>22</v>
+      </c>
+      <c r="F244">
+        <v>10</v>
+      </c>
+      <c r="G244">
+        <v>120</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>28</v>
+      </c>
+      <c r="C245">
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E245">
+        <v>22</v>
+      </c>
+      <c r="F245">
+        <v>10</v>
+      </c>
+      <c r="G245">
+        <v>120</v>
+      </c>
+      <c r="H245">
+        <v>2</v>
+      </c>
+      <c r="I245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>28</v>
+      </c>
+      <c r="C246">
+        <v>5</v>
+      </c>
+      <c r="D246" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E246">
+        <v>22</v>
+      </c>
+      <c r="F246">
+        <v>10</v>
+      </c>
+      <c r="G246">
+        <v>120</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+      <c r="I246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>28</v>
+      </c>
+      <c r="C247">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E247">
+        <v>22</v>
+      </c>
+      <c r="F247">
+        <v>12</v>
+      </c>
+      <c r="G247">
+        <v>120</v>
+      </c>
+      <c r="H247">
+        <v>4</v>
+      </c>
+      <c r="I247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>28</v>
+      </c>
+      <c r="C248">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E248">
+        <v>17</v>
+      </c>
+      <c r="F248">
+        <v>10</v>
+      </c>
+      <c r="G248">
+        <v>120</v>
+      </c>
+      <c r="H248">
+        <v>5</v>
+      </c>
+      <c r="I248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>28</v>
+      </c>
+      <c r="C249">
+        <v>5</v>
+      </c>
+      <c r="D249" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E249">
+        <v>17</v>
+      </c>
+      <c r="F249">
+        <v>10</v>
+      </c>
+      <c r="G249">
+        <v>120</v>
+      </c>
+      <c r="H249">
+        <v>6</v>
+      </c>
+      <c r="I249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>28</v>
+      </c>
+      <c r="C250">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E250">
+        <v>17</v>
+      </c>
+      <c r="F250">
+        <v>10</v>
+      </c>
+      <c r="G250">
+        <v>120</v>
+      </c>
+      <c r="H250">
+        <v>7</v>
+      </c>
+      <c r="I250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251">
+        <v>5</v>
+      </c>
+      <c r="D251" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E251">
+        <v>17</v>
+      </c>
+      <c r="F251">
+        <v>11</v>
+      </c>
+      <c r="G251">
+        <v>120</v>
+      </c>
+      <c r="H251">
+        <v>8</v>
+      </c>
+      <c r="I251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>28</v>
+      </c>
+      <c r="C252">
+        <v>5</v>
+      </c>
+      <c r="D252" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>10</v>
+      </c>
+      <c r="G252">
+        <v>120</v>
+      </c>
+      <c r="H252">
+        <v>9</v>
+      </c>
+      <c r="I252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>28</v>
+      </c>
+      <c r="C253">
+        <v>5</v>
+      </c>
+      <c r="D253" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E253">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>10</v>
+      </c>
+      <c r="G253">
+        <v>120</v>
+      </c>
+      <c r="H253">
+        <v>10</v>
+      </c>
+      <c r="I253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <f t="shared" si="5"/>
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254">
+        <v>5</v>
+      </c>
+      <c r="D254" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E254">
+        <v>12</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+      <c r="G254">
+        <v>120</v>
+      </c>
+      <c r="H254">
+        <v>11</v>
+      </c>
+      <c r="I254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <f t="shared" si="5"/>
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E255">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>10</v>
+      </c>
+      <c r="G255">
+        <v>120</v>
+      </c>
+      <c r="H255">
+        <v>12</v>
+      </c>
+      <c r="I255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <f t="shared" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>28</v>
+      </c>
+      <c r="C256">
+        <v>5</v>
+      </c>
+      <c r="D256" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E256">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>18</v>
+      </c>
+      <c r="G256">
+        <v>120</v>
+      </c>
+      <c r="H256">
+        <v>13</v>
+      </c>
+      <c r="I256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257">
+        <v>10</v>
+      </c>
+      <c r="G257">
+        <v>120</v>
+      </c>
+      <c r="H257">
+        <v>14</v>
+      </c>
+      <c r="I257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <f t="shared" si="5"/>
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>28</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E258">
+        <v>12</v>
+      </c>
+      <c r="F258">
+        <v>10</v>
+      </c>
+      <c r="G258">
+        <v>120</v>
+      </c>
+      <c r="H258">
+        <v>15</v>
+      </c>
+      <c r="I258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <f t="shared" si="5"/>
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259" s="1">
+        <v>44988</v>
+      </c>
+      <c r="E259">
+        <v>12</v>
+      </c>
+      <c r="F259">
+        <v>15</v>
+      </c>
+      <c r="G259">
+        <v>120</v>
+      </c>
+      <c r="H259">
+        <v>16</v>
+      </c>
+      <c r="I259" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215D3B1E-18BD-4C93-BB49-922D379A111E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E69CF2-D651-4A94-984A-BF8B1A567411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2415" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -1529,14 +1529,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I259" totalsRowShown="0">
-  <autoFilter ref="A1:I259" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Подъем т-грифа на бицепс"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I303" totalsRowShown="0">
+  <autoFilter ref="A1:I303" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -2582,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9CF9D-18EF-4E6C-9F32-F7B653F1E1C8}">
   <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2823,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,7 +2985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3021,7 +3015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3051,7 +3045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3081,7 +3075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3111,7 +3105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3141,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3171,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3201,7 +3195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3231,7 +3225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3261,7 +3255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3291,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3321,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3351,7 +3345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3381,7 +3375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3411,7 +3405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3442,7 +3436,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3472,7 +3466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3502,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3532,7 +3526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3562,7 +3556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3712,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3742,7 +3736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3772,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3802,7 +3796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3832,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3862,7 +3856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3892,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3922,7 +3916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3952,7 +3946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3982,7 +3976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4012,7 +4006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4042,7 +4036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4072,7 +4066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4102,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4132,7 +4126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -4162,7 +4156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -4192,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -4222,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -4252,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -4282,7 +4276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -4432,7 +4426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -4462,7 +4456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -4492,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4522,7 +4516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4552,7 +4546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4582,7 +4576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4612,7 +4606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -4642,7 +4636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4792,7 +4786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A129" si="1">A65+1</f>
         <v>65</v>
@@ -4822,7 +4816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -4852,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -4882,7 +4876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4912,7 +4906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4942,7 +4936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4972,7 +4966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -5002,7 +4996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -5512,7 +5506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -5542,7 +5536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -5572,7 +5566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -5602,7 +5596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -5632,7 +5626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -5662,7 +5656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -5692,7 +5686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -5722,7 +5716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -5752,7 +5746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -5782,7 +5776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -5812,7 +5806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -5842,7 +5836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -5872,7 +5866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -5902,7 +5896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -5932,7 +5926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -5962,7 +5956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -5992,7 +5986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -6022,7 +6016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -6052,7 +6046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -6082,7 +6076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -6112,7 +6106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -6142,7 +6136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -6172,7 +6166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -6202,7 +6196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -6232,7 +6226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -6262,7 +6256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -6292,7 +6286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -6322,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -6352,7 +6346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -6382,7 +6376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -6412,7 +6406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -6442,7 +6436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -6472,7 +6466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -6502,7 +6496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7012,7 +7006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7042,7 +7036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -7072,7 +7066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -7102,7 +7096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -7132,7 +7126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -7162,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -7192,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -7222,7 +7216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -7252,7 +7246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -7282,7 +7276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -7312,7 +7306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -7342,7 +7336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -7372,7 +7366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -7402,7 +7396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -7432,7 +7426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -7462,7 +7456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -7492,7 +7486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -7522,7 +7516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -7552,7 +7546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -7582,7 +7576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -7612,7 +7606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -7642,7 +7636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -7672,7 +7666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -7702,7 +7696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -7732,7 +7726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -7762,7 +7756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -7792,7 +7786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -7822,7 +7816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -7852,7 +7846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -7882,7 +7876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -7912,7 +7906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -7942,7 +7936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -7972,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8002,7 +7996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8032,7 +8026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8062,7 +8056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8092,7 +8086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8122,7 +8116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8152,7 +8146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8182,7 +8176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8212,7 +8206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8242,7 +8236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8272,7 +8266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8302,7 +8296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8332,7 +8326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8362,7 +8356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8392,7 +8386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8422,7 +8416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8452,7 +8446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8482,7 +8476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -8512,7 +8506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -8542,7 +8536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -9052,7 +9046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -9082,7 +9076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -9112,7 +9106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -9142,7 +9136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -9172,7 +9166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -9202,7 +9196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -9232,7 +9226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -9262,7 +9256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -9292,7 +9286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -9322,7 +9316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -9352,7 +9346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -9382,7 +9376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -9412,7 +9406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <f t="shared" ref="A220:A243" si="4">A219+1</f>
         <v>219</v>
@@ -9442,7 +9436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <f t="shared" si="4"/>
         <v>220</v>
@@ -9472,7 +9466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <f t="shared" si="4"/>
         <v>221</v>
@@ -9502,7 +9496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <f t="shared" si="4"/>
         <v>222</v>
@@ -9532,7 +9526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <f t="shared" si="4"/>
         <v>223</v>
@@ -9562,7 +9556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <f t="shared" si="4"/>
         <v>224</v>
@@ -9592,7 +9586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <f t="shared" si="4"/>
         <v>225</v>
@@ -9622,7 +9616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <f t="shared" si="4"/>
         <v>226</v>
@@ -9652,7 +9646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <f t="shared" si="4"/>
         <v>227</v>
@@ -9682,7 +9676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <f t="shared" si="4"/>
         <v>228</v>
@@ -9712,7 +9706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <f t="shared" si="4"/>
         <v>229</v>
@@ -9742,7 +9736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <f t="shared" si="4"/>
         <v>230</v>
@@ -9772,7 +9766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <f t="shared" si="4"/>
         <v>231</v>
@@ -9802,7 +9796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <f t="shared" si="4"/>
         <v>232</v>
@@ -9832,7 +9826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <f t="shared" si="4"/>
         <v>233</v>
@@ -9862,7 +9856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <f t="shared" si="4"/>
         <v>234</v>
@@ -9892,7 +9886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <f t="shared" si="4"/>
         <v>235</v>
@@ -9922,7 +9916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <f t="shared" si="4"/>
         <v>236</v>
@@ -9952,7 +9946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <f t="shared" si="4"/>
         <v>237</v>
@@ -9982,7 +9976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <f t="shared" si="4"/>
         <v>238</v>
@@ -10012,7 +10006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <f t="shared" si="4"/>
         <v>239</v>
@@ -10042,7 +10036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <f t="shared" si="4"/>
         <v>240</v>
@@ -10072,7 +10066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <f t="shared" si="4"/>
         <v>241</v>
@@ -10102,7 +10096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <f t="shared" si="4"/>
         <v>242</v>
@@ -10132,7 +10126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <f t="shared" ref="A244:A259" si="5">A243+1</f>
         <v>243</v>
@@ -10162,7 +10156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <f t="shared" si="5"/>
         <v>244</v>
@@ -10192,7 +10186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <f t="shared" si="5"/>
         <v>245</v>
@@ -10222,7 +10216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <f t="shared" si="5"/>
         <v>246</v>
@@ -10252,7 +10246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <f t="shared" si="5"/>
         <v>247</v>
@@ -10282,7 +10276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <f t="shared" si="5"/>
         <v>248</v>
@@ -10312,7 +10306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <f t="shared" si="5"/>
         <v>249</v>
@@ -10342,7 +10336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <f t="shared" si="5"/>
         <v>250</v>
@@ -10372,7 +10366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <f t="shared" si="5"/>
         <v>251</v>
@@ -10402,7 +10396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <f t="shared" si="5"/>
         <v>252</v>
@@ -10432,7 +10426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <f t="shared" si="5"/>
         <v>253</v>
@@ -10462,7 +10456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <f t="shared" si="5"/>
         <v>254</v>
@@ -10492,7 +10486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <f t="shared" si="5"/>
         <v>255</v>
@@ -10522,7 +10516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <f t="shared" si="5"/>
         <v>256</v>
@@ -10552,7 +10546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <f t="shared" si="5"/>
         <v>257</v>
@@ -10582,7 +10576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <f t="shared" si="5"/>
         <v>258</v>
@@ -10609,6 +10603,1326 @@
         <v>16</v>
       </c>
       <c r="I259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <f t="shared" ref="A260:A275" si="6">A259+1</f>
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>32</v>
+      </c>
+      <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E260">
+        <v>24.5</v>
+      </c>
+      <c r="F260">
+        <v>10</v>
+      </c>
+      <c r="G260">
+        <v>120</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <f t="shared" si="6"/>
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>32</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="D261" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E261">
+        <v>24.5</v>
+      </c>
+      <c r="F261">
+        <v>10</v>
+      </c>
+      <c r="G261">
+        <v>120</v>
+      </c>
+      <c r="H261">
+        <v>2</v>
+      </c>
+      <c r="I261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <f t="shared" si="6"/>
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>32</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E262">
+        <v>24.5</v>
+      </c>
+      <c r="F262">
+        <v>10</v>
+      </c>
+      <c r="G262">
+        <v>120</v>
+      </c>
+      <c r="H262">
+        <v>3</v>
+      </c>
+      <c r="I262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <f t="shared" si="6"/>
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>32</v>
+      </c>
+      <c r="C263">
+        <v>6</v>
+      </c>
+      <c r="D263" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E263">
+        <v>24.5</v>
+      </c>
+      <c r="F263">
+        <v>9</v>
+      </c>
+      <c r="G263">
+        <v>120</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <f t="shared" si="6"/>
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>32</v>
+      </c>
+      <c r="C264">
+        <v>6</v>
+      </c>
+      <c r="D264" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E264">
+        <v>19.5</v>
+      </c>
+      <c r="F264">
+        <v>10</v>
+      </c>
+      <c r="G264">
+        <v>120</v>
+      </c>
+      <c r="H264">
+        <v>5</v>
+      </c>
+      <c r="I264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <f t="shared" si="6"/>
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>32</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+      <c r="D265" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E265">
+        <v>19.5</v>
+      </c>
+      <c r="F265">
+        <v>10</v>
+      </c>
+      <c r="G265">
+        <v>120</v>
+      </c>
+      <c r="H265">
+        <v>6</v>
+      </c>
+      <c r="I265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <f t="shared" si="6"/>
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>32</v>
+      </c>
+      <c r="C266">
+        <v>6</v>
+      </c>
+      <c r="D266" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E266">
+        <v>19.5</v>
+      </c>
+      <c r="F266">
+        <v>10</v>
+      </c>
+      <c r="G266">
+        <v>120</v>
+      </c>
+      <c r="H266">
+        <v>7</v>
+      </c>
+      <c r="I266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <f t="shared" si="6"/>
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>32</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+      <c r="D267" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E267">
+        <v>19.5</v>
+      </c>
+      <c r="F267">
+        <v>10</v>
+      </c>
+      <c r="G267">
+        <v>120</v>
+      </c>
+      <c r="H267">
+        <v>8</v>
+      </c>
+      <c r="I267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>32</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+      <c r="D268" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E268">
+        <v>14.5</v>
+      </c>
+      <c r="F268">
+        <v>10</v>
+      </c>
+      <c r="G268">
+        <v>120</v>
+      </c>
+      <c r="H268">
+        <v>9</v>
+      </c>
+      <c r="I268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <f t="shared" si="6"/>
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>32</v>
+      </c>
+      <c r="C269">
+        <v>6</v>
+      </c>
+      <c r="D269" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E269">
+        <v>14.5</v>
+      </c>
+      <c r="F269">
+        <v>10</v>
+      </c>
+      <c r="G269">
+        <v>120</v>
+      </c>
+      <c r="H269">
+        <v>10</v>
+      </c>
+      <c r="I269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>32</v>
+      </c>
+      <c r="C270">
+        <v>6</v>
+      </c>
+      <c r="D270" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E270">
+        <v>14.5</v>
+      </c>
+      <c r="F270">
+        <v>10</v>
+      </c>
+      <c r="G270">
+        <v>120</v>
+      </c>
+      <c r="H270">
+        <v>11</v>
+      </c>
+      <c r="I270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>32</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E271">
+        <v>14.5</v>
+      </c>
+      <c r="F271">
+        <v>15</v>
+      </c>
+      <c r="G271">
+        <v>120</v>
+      </c>
+      <c r="H271">
+        <v>12</v>
+      </c>
+      <c r="I271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <f t="shared" si="6"/>
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>32</v>
+      </c>
+      <c r="C272">
+        <v>6</v>
+      </c>
+      <c r="D272" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E272">
+        <v>14.5</v>
+      </c>
+      <c r="F272">
+        <v>10</v>
+      </c>
+      <c r="G272">
+        <v>120</v>
+      </c>
+      <c r="H272">
+        <v>13</v>
+      </c>
+      <c r="I272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <f t="shared" si="6"/>
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>32</v>
+      </c>
+      <c r="C273">
+        <v>6</v>
+      </c>
+      <c r="D273" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E273">
+        <v>14.5</v>
+      </c>
+      <c r="F273">
+        <v>10</v>
+      </c>
+      <c r="G273">
+        <v>120</v>
+      </c>
+      <c r="H273">
+        <v>14</v>
+      </c>
+      <c r="I273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>32</v>
+      </c>
+      <c r="C274">
+        <v>6</v>
+      </c>
+      <c r="D274" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E274">
+        <v>14.5</v>
+      </c>
+      <c r="F274">
+        <v>10</v>
+      </c>
+      <c r="G274">
+        <v>120</v>
+      </c>
+      <c r="H274">
+        <v>15</v>
+      </c>
+      <c r="I274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <f t="shared" si="6"/>
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>32</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+      <c r="D275" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E275">
+        <v>14.5</v>
+      </c>
+      <c r="F275">
+        <v>12</v>
+      </c>
+      <c r="G275">
+        <v>120</v>
+      </c>
+      <c r="H275">
+        <v>16</v>
+      </c>
+      <c r="I275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <f t="shared" ref="A276:A287" si="7">A275+1</f>
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276">
+        <v>6</v>
+      </c>
+      <c r="D276" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E276">
+        <v>7.5</v>
+      </c>
+      <c r="F276">
+        <v>10</v>
+      </c>
+      <c r="G276">
+        <v>120</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <f t="shared" si="7"/>
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>30</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+      <c r="D277" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E277">
+        <v>7.5</v>
+      </c>
+      <c r="F277">
+        <v>10</v>
+      </c>
+      <c r="G277">
+        <v>120</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+      <c r="I277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>30</v>
+      </c>
+      <c r="C278">
+        <v>6</v>
+      </c>
+      <c r="D278" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E278">
+        <v>7.5</v>
+      </c>
+      <c r="F278">
+        <v>10</v>
+      </c>
+      <c r="G278">
+        <v>120</v>
+      </c>
+      <c r="H278">
+        <v>3</v>
+      </c>
+      <c r="I278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <f t="shared" si="7"/>
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>30</v>
+      </c>
+      <c r="C279">
+        <v>6</v>
+      </c>
+      <c r="D279" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E279">
+        <v>7.5</v>
+      </c>
+      <c r="F279">
+        <v>7</v>
+      </c>
+      <c r="G279">
+        <v>120</v>
+      </c>
+      <c r="H279">
+        <v>4</v>
+      </c>
+      <c r="I279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <f t="shared" si="7"/>
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E280">
+        <v>2.5</v>
+      </c>
+      <c r="F280">
+        <v>8</v>
+      </c>
+      <c r="G280">
+        <v>120</v>
+      </c>
+      <c r="H280">
+        <v>5</v>
+      </c>
+      <c r="I280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <f t="shared" si="7"/>
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>30</v>
+      </c>
+      <c r="C281">
+        <v>6</v>
+      </c>
+      <c r="D281" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E281">
+        <v>2.5</v>
+      </c>
+      <c r="F281">
+        <v>7</v>
+      </c>
+      <c r="G281">
+        <v>120</v>
+      </c>
+      <c r="H281">
+        <v>6</v>
+      </c>
+      <c r="I281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>30</v>
+      </c>
+      <c r="C282">
+        <v>6</v>
+      </c>
+      <c r="D282" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E282">
+        <v>2.5</v>
+      </c>
+      <c r="F282">
+        <v>6</v>
+      </c>
+      <c r="G282">
+        <v>120</v>
+      </c>
+      <c r="H282">
+        <v>7</v>
+      </c>
+      <c r="I282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <f t="shared" si="7"/>
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283">
+        <v>6</v>
+      </c>
+      <c r="D283" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E283">
+        <v>2.5</v>
+      </c>
+      <c r="F283">
+        <v>7</v>
+      </c>
+      <c r="G283">
+        <v>120</v>
+      </c>
+      <c r="H283">
+        <v>8</v>
+      </c>
+      <c r="I283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <f t="shared" si="7"/>
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284">
+        <v>6</v>
+      </c>
+      <c r="D284" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>8</v>
+      </c>
+      <c r="G284">
+        <v>120</v>
+      </c>
+      <c r="H284">
+        <v>9</v>
+      </c>
+      <c r="I284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <f t="shared" si="7"/>
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>30</v>
+      </c>
+      <c r="C285">
+        <v>6</v>
+      </c>
+      <c r="D285" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>7</v>
+      </c>
+      <c r="G285">
+        <v>120</v>
+      </c>
+      <c r="H285">
+        <v>10</v>
+      </c>
+      <c r="I285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <f t="shared" si="7"/>
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286">
+        <v>6</v>
+      </c>
+      <c r="D286" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>8</v>
+      </c>
+      <c r="G286">
+        <v>120</v>
+      </c>
+      <c r="H286">
+        <v>11</v>
+      </c>
+      <c r="I286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <f t="shared" si="7"/>
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>30</v>
+      </c>
+      <c r="C287">
+        <v>6</v>
+      </c>
+      <c r="D287" s="1">
+        <v>44991</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>8</v>
+      </c>
+      <c r="G287">
+        <v>120</v>
+      </c>
+      <c r="H287">
+        <v>12</v>
+      </c>
+      <c r="I287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <f t="shared" ref="A288:A303" si="8">A287+1</f>
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E288">
+        <v>22</v>
+      </c>
+      <c r="F288">
+        <v>10</v>
+      </c>
+      <c r="G288">
+        <v>120</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <f t="shared" si="8"/>
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289">
+        <v>6</v>
+      </c>
+      <c r="D289" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E289">
+        <v>22</v>
+      </c>
+      <c r="F289">
+        <v>10</v>
+      </c>
+      <c r="G289">
+        <v>120</v>
+      </c>
+      <c r="H289">
+        <v>2</v>
+      </c>
+      <c r="I289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <f t="shared" si="8"/>
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>28</v>
+      </c>
+      <c r="C290">
+        <v>6</v>
+      </c>
+      <c r="D290" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E290">
+        <v>22</v>
+      </c>
+      <c r="F290">
+        <v>10</v>
+      </c>
+      <c r="G290">
+        <v>120</v>
+      </c>
+      <c r="H290">
+        <v>3</v>
+      </c>
+      <c r="I290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <f t="shared" si="8"/>
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>28</v>
+      </c>
+      <c r="C291">
+        <v>6</v>
+      </c>
+      <c r="D291" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E291">
+        <v>22</v>
+      </c>
+      <c r="F291">
+        <v>12</v>
+      </c>
+      <c r="G291">
+        <v>120</v>
+      </c>
+      <c r="H291">
+        <v>4</v>
+      </c>
+      <c r="I291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <f t="shared" si="8"/>
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>28</v>
+      </c>
+      <c r="C292">
+        <v>6</v>
+      </c>
+      <c r="D292" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E292">
+        <v>17</v>
+      </c>
+      <c r="F292">
+        <v>10</v>
+      </c>
+      <c r="G292">
+        <v>120</v>
+      </c>
+      <c r="H292">
+        <v>5</v>
+      </c>
+      <c r="I292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <f t="shared" si="8"/>
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>28</v>
+      </c>
+      <c r="C293">
+        <v>6</v>
+      </c>
+      <c r="D293" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E293">
+        <v>17</v>
+      </c>
+      <c r="F293">
+        <v>10</v>
+      </c>
+      <c r="G293">
+        <v>120</v>
+      </c>
+      <c r="H293">
+        <v>6</v>
+      </c>
+      <c r="I293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <f t="shared" si="8"/>
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>28</v>
+      </c>
+      <c r="C294">
+        <v>6</v>
+      </c>
+      <c r="D294" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E294">
+        <v>17</v>
+      </c>
+      <c r="F294">
+        <v>10</v>
+      </c>
+      <c r="G294">
+        <v>120</v>
+      </c>
+      <c r="H294">
+        <v>7</v>
+      </c>
+      <c r="I294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <f t="shared" si="8"/>
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E295">
+        <v>17</v>
+      </c>
+      <c r="F295">
+        <v>13</v>
+      </c>
+      <c r="G295">
+        <v>120</v>
+      </c>
+      <c r="H295">
+        <v>8</v>
+      </c>
+      <c r="I295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <f t="shared" si="8"/>
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>28</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E296">
+        <v>14.5</v>
+      </c>
+      <c r="F296">
+        <v>10</v>
+      </c>
+      <c r="G296">
+        <v>120</v>
+      </c>
+      <c r="H296">
+        <v>9</v>
+      </c>
+      <c r="I296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <f t="shared" si="8"/>
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297">
+        <v>6</v>
+      </c>
+      <c r="D297" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E297">
+        <v>14.5</v>
+      </c>
+      <c r="F297">
+        <v>10</v>
+      </c>
+      <c r="G297">
+        <v>120</v>
+      </c>
+      <c r="H297">
+        <v>10</v>
+      </c>
+      <c r="I297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <f t="shared" si="8"/>
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298">
+        <v>6</v>
+      </c>
+      <c r="D298" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E298">
+        <v>14.5</v>
+      </c>
+      <c r="F298">
+        <v>10</v>
+      </c>
+      <c r="G298">
+        <v>120</v>
+      </c>
+      <c r="H298">
+        <v>11</v>
+      </c>
+      <c r="I298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <f t="shared" si="8"/>
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>28</v>
+      </c>
+      <c r="C299">
+        <v>6</v>
+      </c>
+      <c r="D299" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E299">
+        <v>14.5</v>
+      </c>
+      <c r="F299">
+        <v>14</v>
+      </c>
+      <c r="G299">
+        <v>120</v>
+      </c>
+      <c r="H299">
+        <v>12</v>
+      </c>
+      <c r="I299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <f t="shared" si="8"/>
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>28</v>
+      </c>
+      <c r="C300">
+        <v>6</v>
+      </c>
+      <c r="D300" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E300">
+        <v>14.5</v>
+      </c>
+      <c r="F300">
+        <v>10</v>
+      </c>
+      <c r="G300">
+        <v>120</v>
+      </c>
+      <c r="H300">
+        <v>13</v>
+      </c>
+      <c r="I300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301">
+        <v>6</v>
+      </c>
+      <c r="D301" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E301">
+        <v>14.5</v>
+      </c>
+      <c r="F301">
+        <v>10</v>
+      </c>
+      <c r="G301">
+        <v>120</v>
+      </c>
+      <c r="H301">
+        <v>14</v>
+      </c>
+      <c r="I301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <f t="shared" si="8"/>
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>28</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E302">
+        <v>14.5</v>
+      </c>
+      <c r="F302">
+        <v>10</v>
+      </c>
+      <c r="G302">
+        <v>120</v>
+      </c>
+      <c r="H302">
+        <v>15</v>
+      </c>
+      <c r="I302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>28</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303" s="1">
+        <v>44993</v>
+      </c>
+      <c r="E303">
+        <v>14.5</v>
+      </c>
+      <c r="F303">
+        <v>12</v>
+      </c>
+      <c r="G303">
+        <v>120</v>
+      </c>
+      <c r="H303">
+        <v>16</v>
+      </c>
+      <c r="I303" t="s">
         <v>8</v>
       </c>
     </row>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E69CF2-D651-4A94-984A-BF8B1A567411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E3414-FC92-4A68-A4E0-92E123C75FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист4" sheetId="4" r:id="rId3"/>
-    <sheet name="Лист5" sheetId="5" r:id="rId4"/>
+    <sheet name="1 ПМ" sheetId="5" r:id="rId4"/>
     <sheet name="Лист3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -368,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -387,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1529,8 +1530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I303" totalsRowShown="0">
-  <autoFilter ref="A1:I303" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I339" totalsRowShown="0">
+  <autoFilter ref="A1:I339" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -1813,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,14 +1852,14 @@
         <v>35</v>
       </c>
       <c r="B3" s="12">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="13">
         <f>B1*B3^2-C1*B3+D1</f>
-        <v>71.090999999999994</v>
+        <v>10.932760000000002</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -2577,7 +2578,7 @@
   <dimension ref="A2:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,7 +2645,9 @@
       <c r="F3" s="15">
         <v>39.5</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>39.5</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2674,7 +2677,9 @@
       <c r="F4" s="15">
         <v>39.5</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15">
+        <v>42</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -2704,7 +2709,9 @@
       <c r="F5" s="15">
         <v>34.5</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>37</v>
+      </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -2719,7 +2726,24 @@
       <c r="A6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="B6" s="18">
+        <v>50</v>
+      </c>
+      <c r="C6" s="18">
+        <v>50</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50</v>
+      </c>
+      <c r="E6" s="18">
+        <v>50</v>
+      </c>
+      <c r="F6" s="18">
+        <v>50</v>
+      </c>
+      <c r="G6" s="15">
+        <v>55</v>
+      </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -2749,7 +2773,9 @@
       <c r="F7" s="15">
         <v>17.5</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>17.5</v>
+      </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -2799,7 +2825,9 @@
       <c r="F9" s="15">
         <v>29.5</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>29.5</v>
+      </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -2817,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J303"/>
+  <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="F304" sqref="F304"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11926,6 +11954,1086 @@
         <v>8</v>
       </c>
     </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <f t="shared" ref="A304:A309" si="9">A303+1</f>
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>31</v>
+      </c>
+      <c r="C304">
+        <v>6</v>
+      </c>
+      <c r="D304" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>3</v>
+      </c>
+      <c r="G304">
+        <v>120</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <f t="shared" si="9"/>
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305">
+        <v>6</v>
+      </c>
+      <c r="D305" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>3</v>
+      </c>
+      <c r="G305">
+        <v>120</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+      <c r="I305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <f t="shared" si="9"/>
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306">
+        <v>6</v>
+      </c>
+      <c r="D306" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>3</v>
+      </c>
+      <c r="G306">
+        <v>120</v>
+      </c>
+      <c r="H306">
+        <v>3</v>
+      </c>
+      <c r="I306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <f t="shared" si="9"/>
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>31</v>
+      </c>
+      <c r="C307">
+        <v>6</v>
+      </c>
+      <c r="D307" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>3</v>
+      </c>
+      <c r="G307">
+        <v>120</v>
+      </c>
+      <c r="H307">
+        <v>4</v>
+      </c>
+      <c r="I307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <f t="shared" si="9"/>
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>31</v>
+      </c>
+      <c r="C308">
+        <v>6</v>
+      </c>
+      <c r="D308" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>3</v>
+      </c>
+      <c r="G308">
+        <v>120</v>
+      </c>
+      <c r="H308">
+        <v>5</v>
+      </c>
+      <c r="I308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <f t="shared" si="9"/>
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309">
+        <v>6</v>
+      </c>
+      <c r="D309" s="1">
+        <v>44994</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>3</v>
+      </c>
+      <c r="G309">
+        <v>120</v>
+      </c>
+      <c r="H309">
+        <v>6</v>
+      </c>
+      <c r="I309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <f t="shared" ref="A310:A333" si="10">A309+1</f>
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>33</v>
+      </c>
+      <c r="C310">
+        <v>6</v>
+      </c>
+      <c r="D310" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E310">
+        <v>27</v>
+      </c>
+      <c r="F310">
+        <v>10</v>
+      </c>
+      <c r="G310">
+        <v>120</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <f t="shared" si="10"/>
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>33</v>
+      </c>
+      <c r="C311">
+        <v>6</v>
+      </c>
+      <c r="D311" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E311">
+        <v>27</v>
+      </c>
+      <c r="F311">
+        <v>10</v>
+      </c>
+      <c r="G311">
+        <v>120</v>
+      </c>
+      <c r="H311">
+        <v>2</v>
+      </c>
+      <c r="I311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <f t="shared" si="10"/>
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>33</v>
+      </c>
+      <c r="C312">
+        <v>6</v>
+      </c>
+      <c r="D312" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E312">
+        <v>27</v>
+      </c>
+      <c r="F312">
+        <v>10</v>
+      </c>
+      <c r="G312">
+        <v>120</v>
+      </c>
+      <c r="H312">
+        <v>3</v>
+      </c>
+      <c r="I312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <f t="shared" si="10"/>
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313">
+        <v>6</v>
+      </c>
+      <c r="D313" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E313">
+        <v>27</v>
+      </c>
+      <c r="F313">
+        <v>8</v>
+      </c>
+      <c r="G313">
+        <v>120</v>
+      </c>
+      <c r="H313">
+        <v>4</v>
+      </c>
+      <c r="I313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <f t="shared" si="10"/>
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>33</v>
+      </c>
+      <c r="C314">
+        <v>6</v>
+      </c>
+      <c r="D314" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E314">
+        <v>22</v>
+      </c>
+      <c r="F314">
+        <v>10</v>
+      </c>
+      <c r="G314">
+        <v>120</v>
+      </c>
+      <c r="H314">
+        <v>5</v>
+      </c>
+      <c r="I314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <f t="shared" si="10"/>
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315">
+        <v>6</v>
+      </c>
+      <c r="D315" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E315">
+        <v>22</v>
+      </c>
+      <c r="F315">
+        <v>10</v>
+      </c>
+      <c r="G315">
+        <v>120</v>
+      </c>
+      <c r="H315">
+        <v>6</v>
+      </c>
+      <c r="I315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <f t="shared" si="10"/>
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>33</v>
+      </c>
+      <c r="C316">
+        <v>6</v>
+      </c>
+      <c r="D316" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E316">
+        <v>22</v>
+      </c>
+      <c r="F316">
+        <v>10</v>
+      </c>
+      <c r="G316">
+        <v>120</v>
+      </c>
+      <c r="H316">
+        <v>7</v>
+      </c>
+      <c r="I316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <f t="shared" si="10"/>
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>33</v>
+      </c>
+      <c r="C317">
+        <v>6</v>
+      </c>
+      <c r="D317" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E317">
+        <v>22</v>
+      </c>
+      <c r="F317">
+        <v>10</v>
+      </c>
+      <c r="G317">
+        <v>120</v>
+      </c>
+      <c r="H317">
+        <v>8</v>
+      </c>
+      <c r="I317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318">
+        <v>6</v>
+      </c>
+      <c r="D318" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E318">
+        <v>17</v>
+      </c>
+      <c r="F318">
+        <v>10</v>
+      </c>
+      <c r="G318">
+        <v>120</v>
+      </c>
+      <c r="H318">
+        <v>9</v>
+      </c>
+      <c r="I318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <f t="shared" si="10"/>
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319">
+        <v>6</v>
+      </c>
+      <c r="D319" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E319">
+        <v>17</v>
+      </c>
+      <c r="F319">
+        <v>10</v>
+      </c>
+      <c r="G319">
+        <v>120</v>
+      </c>
+      <c r="H319">
+        <v>10</v>
+      </c>
+      <c r="I319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <f t="shared" si="10"/>
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>33</v>
+      </c>
+      <c r="C320">
+        <v>6</v>
+      </c>
+      <c r="D320" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E320">
+        <v>17</v>
+      </c>
+      <c r="F320">
+        <v>10</v>
+      </c>
+      <c r="G320">
+        <v>120</v>
+      </c>
+      <c r="H320">
+        <v>11</v>
+      </c>
+      <c r="I320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <f t="shared" si="10"/>
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>33</v>
+      </c>
+      <c r="C321">
+        <v>6</v>
+      </c>
+      <c r="D321" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E321">
+        <v>17</v>
+      </c>
+      <c r="F321">
+        <v>15</v>
+      </c>
+      <c r="G321">
+        <v>120</v>
+      </c>
+      <c r="H321">
+        <v>12</v>
+      </c>
+      <c r="I321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <f t="shared" si="10"/>
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322">
+        <v>6</v>
+      </c>
+      <c r="D322" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E322">
+        <v>17</v>
+      </c>
+      <c r="F322">
+        <v>10</v>
+      </c>
+      <c r="G322">
+        <v>120</v>
+      </c>
+      <c r="H322">
+        <v>13</v>
+      </c>
+      <c r="I322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <f t="shared" si="10"/>
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323">
+        <v>6</v>
+      </c>
+      <c r="D323" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E323">
+        <v>17</v>
+      </c>
+      <c r="F323">
+        <v>10</v>
+      </c>
+      <c r="G323">
+        <v>120</v>
+      </c>
+      <c r="H323">
+        <v>14</v>
+      </c>
+      <c r="I323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <f t="shared" si="10"/>
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>33</v>
+      </c>
+      <c r="C324">
+        <v>6</v>
+      </c>
+      <c r="D324" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E324">
+        <v>17</v>
+      </c>
+      <c r="F324">
+        <v>10</v>
+      </c>
+      <c r="G324">
+        <v>120</v>
+      </c>
+      <c r="H324">
+        <v>15</v>
+      </c>
+      <c r="I324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <f t="shared" si="10"/>
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325">
+        <v>6</v>
+      </c>
+      <c r="D325" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E325">
+        <v>17</v>
+      </c>
+      <c r="F325">
+        <v>11</v>
+      </c>
+      <c r="G325">
+        <v>120</v>
+      </c>
+      <c r="H325">
+        <v>16</v>
+      </c>
+      <c r="I325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <f t="shared" si="10"/>
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E326">
+        <v>27</v>
+      </c>
+      <c r="F326">
+        <v>10</v>
+      </c>
+      <c r="G326">
+        <v>120</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <f t="shared" si="10"/>
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>26</v>
+      </c>
+      <c r="C327">
+        <v>6</v>
+      </c>
+      <c r="D327" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E327">
+        <v>27</v>
+      </c>
+      <c r="F327">
+        <v>10</v>
+      </c>
+      <c r="G327">
+        <v>120</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <f t="shared" si="10"/>
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>26</v>
+      </c>
+      <c r="C328">
+        <v>6</v>
+      </c>
+      <c r="D328" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E328">
+        <v>27</v>
+      </c>
+      <c r="F328">
+        <v>10</v>
+      </c>
+      <c r="G328">
+        <v>120</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+      <c r="I328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <f t="shared" si="10"/>
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>26</v>
+      </c>
+      <c r="C329">
+        <v>6</v>
+      </c>
+      <c r="D329" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E329">
+        <v>27</v>
+      </c>
+      <c r="F329">
+        <v>10</v>
+      </c>
+      <c r="G329">
+        <v>120</v>
+      </c>
+      <c r="H329">
+        <v>4</v>
+      </c>
+      <c r="I329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <f t="shared" si="10"/>
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>26</v>
+      </c>
+      <c r="C330">
+        <v>6</v>
+      </c>
+      <c r="D330" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E330">
+        <v>27</v>
+      </c>
+      <c r="F330">
+        <v>10</v>
+      </c>
+      <c r="G330">
+        <v>120</v>
+      </c>
+      <c r="H330">
+        <v>5</v>
+      </c>
+      <c r="I330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>26</v>
+      </c>
+      <c r="C331">
+        <v>6</v>
+      </c>
+      <c r="D331" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E331">
+        <v>27</v>
+      </c>
+      <c r="F331">
+        <v>10</v>
+      </c>
+      <c r="G331">
+        <v>120</v>
+      </c>
+      <c r="H331">
+        <v>6</v>
+      </c>
+      <c r="I331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <f t="shared" si="10"/>
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>26</v>
+      </c>
+      <c r="C332">
+        <v>6</v>
+      </c>
+      <c r="D332" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E332">
+        <v>27</v>
+      </c>
+      <c r="F332">
+        <v>10</v>
+      </c>
+      <c r="G332">
+        <v>120</v>
+      </c>
+      <c r="H332">
+        <v>7</v>
+      </c>
+      <c r="I332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <f t="shared" si="10"/>
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>26</v>
+      </c>
+      <c r="C333">
+        <v>6</v>
+      </c>
+      <c r="D333" s="1">
+        <v>44996</v>
+      </c>
+      <c r="E333">
+        <v>27</v>
+      </c>
+      <c r="F333">
+        <v>10</v>
+      </c>
+      <c r="G333">
+        <v>120</v>
+      </c>
+      <c r="H333">
+        <v>8</v>
+      </c>
+      <c r="I333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <f>A333+1</f>
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334">
+        <v>6</v>
+      </c>
+      <c r="D334" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>4</v>
+      </c>
+      <c r="G334">
+        <v>120</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <f>A334+1</f>
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335">
+        <v>6</v>
+      </c>
+      <c r="D335" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E335">
+        <v>0</v>
+      </c>
+      <c r="F335">
+        <v>4</v>
+      </c>
+      <c r="G335">
+        <v>120</v>
+      </c>
+      <c r="H335">
+        <v>2</v>
+      </c>
+      <c r="I335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <f>A335+1</f>
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>4</v>
+      </c>
+      <c r="G336">
+        <v>120</v>
+      </c>
+      <c r="H336">
+        <v>3</v>
+      </c>
+      <c r="I336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <f>A336+1</f>
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337">
+        <v>6</v>
+      </c>
+      <c r="D337" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>4</v>
+      </c>
+      <c r="G337">
+        <v>120</v>
+      </c>
+      <c r="H337">
+        <v>4</v>
+      </c>
+      <c r="I337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <f>A337+1</f>
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338">
+        <v>6</v>
+      </c>
+      <c r="D338" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>4</v>
+      </c>
+      <c r="G338">
+        <v>120</v>
+      </c>
+      <c r="H338">
+        <v>5</v>
+      </c>
+      <c r="I338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <f>A338+1</f>
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339">
+        <v>6</v>
+      </c>
+      <c r="D339" s="1">
+        <v>44997</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>4</v>
+      </c>
+      <c r="G339">
+        <v>120</v>
+      </c>
+      <c r="H339">
+        <v>6</v>
+      </c>
+      <c r="I339" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E3414-FC92-4A68-A4E0-92E123C75FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30A5466-9B51-48C6-802C-9A780A916DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -1530,8 +1530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I339" totalsRowShown="0">
-  <autoFilter ref="A1:I339" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I373" totalsRowShown="0">
+  <autoFilter ref="A1:I373" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -2845,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I340" sqref="I340"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <f>A333+1</f>
+        <f t="shared" ref="A334:A339" si="11">A333+1</f>
         <v>333</v>
       </c>
       <c r="B334" t="s">
@@ -12886,7 +12886,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <f>A334+1</f>
+        <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="B335" t="s">
@@ -12916,7 +12916,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <f>A335+1</f>
+        <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="B336" t="s">
@@ -12946,7 +12946,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <f>A336+1</f>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="B337" t="s">
@@ -12976,7 +12976,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <f>A337+1</f>
+        <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="B338" t="s">
@@ -13006,7 +13006,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <f>A338+1</f>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="B339" t="s">
@@ -13031,6 +13031,1026 @@
         <v>6</v>
       </c>
       <c r="I339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <f t="shared" ref="A340:A367" si="12">A339+1</f>
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340">
+        <v>7</v>
+      </c>
+      <c r="D340" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E340">
+        <v>24.5</v>
+      </c>
+      <c r="F340">
+        <v>10</v>
+      </c>
+      <c r="G340">
+        <v>120</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <f t="shared" si="12"/>
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>32</v>
+      </c>
+      <c r="C341">
+        <v>7</v>
+      </c>
+      <c r="D341" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E341">
+        <v>24.5</v>
+      </c>
+      <c r="F341">
+        <v>10</v>
+      </c>
+      <c r="G341">
+        <v>120</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <f t="shared" si="12"/>
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>32</v>
+      </c>
+      <c r="C342">
+        <v>7</v>
+      </c>
+      <c r="D342" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E342">
+        <v>24.5</v>
+      </c>
+      <c r="F342">
+        <v>10</v>
+      </c>
+      <c r="G342">
+        <v>120</v>
+      </c>
+      <c r="H342">
+        <v>3</v>
+      </c>
+      <c r="I342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <f t="shared" si="12"/>
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343">
+        <v>7</v>
+      </c>
+      <c r="D343" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E343">
+        <v>24.5</v>
+      </c>
+      <c r="F343">
+        <v>11</v>
+      </c>
+      <c r="G343">
+        <v>120</v>
+      </c>
+      <c r="H343">
+        <v>4</v>
+      </c>
+      <c r="I343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>32</v>
+      </c>
+      <c r="C344">
+        <v>7</v>
+      </c>
+      <c r="D344" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E344">
+        <v>19.5</v>
+      </c>
+      <c r="F344">
+        <v>10</v>
+      </c>
+      <c r="G344">
+        <v>120</v>
+      </c>
+      <c r="H344">
+        <v>5</v>
+      </c>
+      <c r="I344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <f t="shared" si="12"/>
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345">
+        <v>7</v>
+      </c>
+      <c r="D345" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E345">
+        <v>19.5</v>
+      </c>
+      <c r="F345">
+        <v>10</v>
+      </c>
+      <c r="G345">
+        <v>120</v>
+      </c>
+      <c r="H345">
+        <v>6</v>
+      </c>
+      <c r="I345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <f t="shared" si="12"/>
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>32</v>
+      </c>
+      <c r="C346">
+        <v>7</v>
+      </c>
+      <c r="D346" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E346">
+        <v>19.5</v>
+      </c>
+      <c r="F346">
+        <v>10</v>
+      </c>
+      <c r="G346">
+        <v>120</v>
+      </c>
+      <c r="H346">
+        <v>7</v>
+      </c>
+      <c r="I346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>32</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+      <c r="D347" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E347">
+        <v>19.5</v>
+      </c>
+      <c r="F347">
+        <v>10</v>
+      </c>
+      <c r="G347">
+        <v>120</v>
+      </c>
+      <c r="H347">
+        <v>8</v>
+      </c>
+      <c r="I347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <f t="shared" si="12"/>
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>32</v>
+      </c>
+      <c r="C348">
+        <v>7</v>
+      </c>
+      <c r="D348" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E348">
+        <v>17</v>
+      </c>
+      <c r="F348">
+        <v>10</v>
+      </c>
+      <c r="G348">
+        <v>120</v>
+      </c>
+      <c r="H348">
+        <v>9</v>
+      </c>
+      <c r="I348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <f t="shared" si="12"/>
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>32</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E349">
+        <v>17</v>
+      </c>
+      <c r="F349">
+        <v>10</v>
+      </c>
+      <c r="G349">
+        <v>120</v>
+      </c>
+      <c r="H349">
+        <v>10</v>
+      </c>
+      <c r="I349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <f t="shared" si="12"/>
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>32</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E350">
+        <v>17</v>
+      </c>
+      <c r="F350">
+        <v>10</v>
+      </c>
+      <c r="G350">
+        <v>120</v>
+      </c>
+      <c r="H350">
+        <v>11</v>
+      </c>
+      <c r="I350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>32</v>
+      </c>
+      <c r="C351">
+        <v>7</v>
+      </c>
+      <c r="D351" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E351">
+        <v>17</v>
+      </c>
+      <c r="F351">
+        <v>11</v>
+      </c>
+      <c r="G351">
+        <v>120</v>
+      </c>
+      <c r="H351">
+        <v>12</v>
+      </c>
+      <c r="I351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>32</v>
+      </c>
+      <c r="C352">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E352">
+        <v>14.5</v>
+      </c>
+      <c r="F352">
+        <v>10</v>
+      </c>
+      <c r="G352">
+        <v>120</v>
+      </c>
+      <c r="H352">
+        <v>13</v>
+      </c>
+      <c r="I352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <f t="shared" si="12"/>
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>32</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+      <c r="D353" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E353">
+        <v>14.5</v>
+      </c>
+      <c r="F353">
+        <v>10</v>
+      </c>
+      <c r="G353">
+        <v>120</v>
+      </c>
+      <c r="H353">
+        <v>14</v>
+      </c>
+      <c r="I353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <f t="shared" si="12"/>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>32</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+      <c r="D354" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E354">
+        <v>14.5</v>
+      </c>
+      <c r="F354">
+        <v>10</v>
+      </c>
+      <c r="G354">
+        <v>120</v>
+      </c>
+      <c r="H354">
+        <v>15</v>
+      </c>
+      <c r="I354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <f t="shared" si="12"/>
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>32</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+      <c r="D355" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E355">
+        <v>14.5</v>
+      </c>
+      <c r="F355">
+        <v>12</v>
+      </c>
+      <c r="G355">
+        <v>120</v>
+      </c>
+      <c r="H355">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <f t="shared" si="12"/>
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E356">
+        <v>7.5</v>
+      </c>
+      <c r="F356">
+        <v>10</v>
+      </c>
+      <c r="G356">
+        <v>120</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <f t="shared" si="12"/>
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357">
+        <v>7</v>
+      </c>
+      <c r="D357" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E357">
+        <v>7.5</v>
+      </c>
+      <c r="F357">
+        <v>10</v>
+      </c>
+      <c r="G357">
+        <v>120</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+      <c r="I357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <f t="shared" si="12"/>
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358">
+        <v>7</v>
+      </c>
+      <c r="D358" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E358">
+        <v>7.5</v>
+      </c>
+      <c r="F358">
+        <v>9</v>
+      </c>
+      <c r="G358">
+        <v>120</v>
+      </c>
+      <c r="H358">
+        <v>3</v>
+      </c>
+      <c r="I358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <f t="shared" si="12"/>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+      <c r="D359" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E359">
+        <v>7.5</v>
+      </c>
+      <c r="F359">
+        <v>6</v>
+      </c>
+      <c r="G359">
+        <v>120</v>
+      </c>
+      <c r="H359">
+        <v>4</v>
+      </c>
+      <c r="I359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <f t="shared" si="12"/>
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360">
+        <v>7</v>
+      </c>
+      <c r="D360" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E360">
+        <v>2.5</v>
+      </c>
+      <c r="F360">
+        <v>8</v>
+      </c>
+      <c r="G360">
+        <v>120</v>
+      </c>
+      <c r="H360">
+        <v>5</v>
+      </c>
+      <c r="I360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E361">
+        <v>2.5</v>
+      </c>
+      <c r="F361">
+        <v>6</v>
+      </c>
+      <c r="G361">
+        <v>120</v>
+      </c>
+      <c r="H361">
+        <v>6</v>
+      </c>
+      <c r="I361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <f t="shared" si="12"/>
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+      <c r="G362">
+        <v>120</v>
+      </c>
+      <c r="H362">
+        <v>7</v>
+      </c>
+      <c r="I362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <f t="shared" si="12"/>
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+      <c r="D363" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>8</v>
+      </c>
+      <c r="G363">
+        <v>120</v>
+      </c>
+      <c r="H363">
+        <v>8</v>
+      </c>
+      <c r="I363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <f t="shared" si="12"/>
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+      <c r="D364" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>8</v>
+      </c>
+      <c r="G364">
+        <v>120</v>
+      </c>
+      <c r="H364">
+        <v>9</v>
+      </c>
+      <c r="I364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <f t="shared" si="12"/>
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>30</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>8</v>
+      </c>
+      <c r="G365">
+        <v>120</v>
+      </c>
+      <c r="H365">
+        <v>10</v>
+      </c>
+      <c r="I365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <f t="shared" si="12"/>
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>7</v>
+      </c>
+      <c r="D366" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>8</v>
+      </c>
+      <c r="G366">
+        <v>120</v>
+      </c>
+      <c r="H366">
+        <v>11</v>
+      </c>
+      <c r="I366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <f t="shared" si="12"/>
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>30</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>8</v>
+      </c>
+      <c r="G367">
+        <v>120</v>
+      </c>
+      <c r="H367">
+        <v>12</v>
+      </c>
+      <c r="I367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <f t="shared" ref="A368:A373" si="13">A367+1</f>
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>31</v>
+      </c>
+      <c r="C368">
+        <v>7</v>
+      </c>
+      <c r="D368" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+      <c r="G368">
+        <v>120</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <f t="shared" si="13"/>
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>31</v>
+      </c>
+      <c r="C369">
+        <v>7</v>
+      </c>
+      <c r="D369" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+      <c r="G369">
+        <v>120</v>
+      </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+      <c r="I369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <f t="shared" si="13"/>
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>31</v>
+      </c>
+      <c r="C370">
+        <v>7</v>
+      </c>
+      <c r="D370" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>120</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+      <c r="I370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <f t="shared" si="13"/>
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>31</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>3</v>
+      </c>
+      <c r="G371">
+        <v>120</v>
+      </c>
+      <c r="H371">
+        <v>4</v>
+      </c>
+      <c r="I371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <f t="shared" si="13"/>
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>31</v>
+      </c>
+      <c r="C372">
+        <v>7</v>
+      </c>
+      <c r="D372" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>3</v>
+      </c>
+      <c r="G372">
+        <v>120</v>
+      </c>
+      <c r="H372">
+        <v>5</v>
+      </c>
+      <c r="I372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <f t="shared" si="13"/>
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>31</v>
+      </c>
+      <c r="C373">
+        <v>7</v>
+      </c>
+      <c r="D373" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>3</v>
+      </c>
+      <c r="G373">
+        <v>120</v>
+      </c>
+      <c r="H373">
+        <v>6</v>
+      </c>
+      <c r="I373" t="s">
         <v>7</v>
       </c>
     </row>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30A5466-9B51-48C6-802C-9A780A916DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565595B-1FB2-4111-8A4C-0042DE97325A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -1530,8 +1530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I373" totalsRowShown="0">
-  <autoFilter ref="A1:I373" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I397" totalsRowShown="0">
+  <autoFilter ref="A1:I397" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -2845,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J373"/>
+  <dimension ref="A1:J397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I374" sqref="I374"/>
+    <sheetView tabSelected="1" topLeftCell="A384" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F398" sqref="F398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14054,6 +14054,726 @@
         <v>7</v>
       </c>
     </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <f t="shared" ref="A374:A397" si="14">A373+1</f>
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>33</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+      <c r="D374" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E374">
+        <v>27</v>
+      </c>
+      <c r="F374">
+        <v>10</v>
+      </c>
+      <c r="G374">
+        <v>120</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <f t="shared" si="14"/>
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375">
+        <v>7</v>
+      </c>
+      <c r="D375" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E375">
+        <v>27</v>
+      </c>
+      <c r="F375">
+        <v>10</v>
+      </c>
+      <c r="G375">
+        <v>120</v>
+      </c>
+      <c r="H375">
+        <v>2</v>
+      </c>
+      <c r="I375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <f t="shared" si="14"/>
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>33</v>
+      </c>
+      <c r="C376">
+        <v>7</v>
+      </c>
+      <c r="D376" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E376">
+        <v>27</v>
+      </c>
+      <c r="F376">
+        <v>10</v>
+      </c>
+      <c r="G376">
+        <v>120</v>
+      </c>
+      <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <f t="shared" si="14"/>
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>33</v>
+      </c>
+      <c r="C377">
+        <v>7</v>
+      </c>
+      <c r="D377" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E377">
+        <v>27</v>
+      </c>
+      <c r="F377">
+        <v>10</v>
+      </c>
+      <c r="G377">
+        <v>120</v>
+      </c>
+      <c r="H377">
+        <v>4</v>
+      </c>
+      <c r="I377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <f t="shared" si="14"/>
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>33</v>
+      </c>
+      <c r="C378">
+        <v>7</v>
+      </c>
+      <c r="D378" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E378">
+        <v>22</v>
+      </c>
+      <c r="F378">
+        <v>10</v>
+      </c>
+      <c r="G378">
+        <v>120</v>
+      </c>
+      <c r="H378">
+        <v>5</v>
+      </c>
+      <c r="I378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <f t="shared" si="14"/>
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>33</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+      <c r="D379" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E379">
+        <v>22</v>
+      </c>
+      <c r="F379">
+        <v>10</v>
+      </c>
+      <c r="G379">
+        <v>120</v>
+      </c>
+      <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>33</v>
+      </c>
+      <c r="C380">
+        <v>7</v>
+      </c>
+      <c r="D380" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E380">
+        <v>22</v>
+      </c>
+      <c r="F380">
+        <v>10</v>
+      </c>
+      <c r="G380">
+        <v>120</v>
+      </c>
+      <c r="H380">
+        <v>7</v>
+      </c>
+      <c r="I380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <f t="shared" si="14"/>
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>33</v>
+      </c>
+      <c r="C381">
+        <v>7</v>
+      </c>
+      <c r="D381" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E381">
+        <v>22</v>
+      </c>
+      <c r="F381">
+        <v>12</v>
+      </c>
+      <c r="G381">
+        <v>120</v>
+      </c>
+      <c r="H381">
+        <v>8</v>
+      </c>
+      <c r="I381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
+        <f t="shared" si="14"/>
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>33</v>
+      </c>
+      <c r="C382">
+        <v>7</v>
+      </c>
+      <c r="D382" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E382">
+        <v>19.5</v>
+      </c>
+      <c r="F382">
+        <v>10</v>
+      </c>
+      <c r="G382">
+        <v>120</v>
+      </c>
+      <c r="H382">
+        <v>9</v>
+      </c>
+      <c r="I382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <f t="shared" si="14"/>
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383">
+        <v>7</v>
+      </c>
+      <c r="D383" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E383">
+        <v>19.5</v>
+      </c>
+      <c r="F383">
+        <v>10</v>
+      </c>
+      <c r="G383">
+        <v>120</v>
+      </c>
+      <c r="H383">
+        <v>10</v>
+      </c>
+      <c r="I383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
+        <f t="shared" si="14"/>
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>33</v>
+      </c>
+      <c r="C384">
+        <v>7</v>
+      </c>
+      <c r="D384" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E384">
+        <v>19.5</v>
+      </c>
+      <c r="F384">
+        <v>10</v>
+      </c>
+      <c r="G384">
+        <v>120</v>
+      </c>
+      <c r="H384">
+        <v>11</v>
+      </c>
+      <c r="I384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>33</v>
+      </c>
+      <c r="C385">
+        <v>7</v>
+      </c>
+      <c r="D385" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E385">
+        <v>19.5</v>
+      </c>
+      <c r="F385">
+        <v>13</v>
+      </c>
+      <c r="G385">
+        <v>120</v>
+      </c>
+      <c r="H385">
+        <v>12</v>
+      </c>
+      <c r="I385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
+        <f t="shared" si="14"/>
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E386">
+        <v>19.5</v>
+      </c>
+      <c r="F386">
+        <v>10</v>
+      </c>
+      <c r="G386">
+        <v>120</v>
+      </c>
+      <c r="H386">
+        <v>13</v>
+      </c>
+      <c r="I386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <f t="shared" si="14"/>
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+      <c r="D387" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E387">
+        <v>19.5</v>
+      </c>
+      <c r="F387">
+        <v>10</v>
+      </c>
+      <c r="G387">
+        <v>120</v>
+      </c>
+      <c r="H387">
+        <v>14</v>
+      </c>
+      <c r="I387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
+        <f t="shared" si="14"/>
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388">
+        <v>7</v>
+      </c>
+      <c r="D388" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E388">
+        <v>19.5</v>
+      </c>
+      <c r="F388">
+        <v>10</v>
+      </c>
+      <c r="G388">
+        <v>120</v>
+      </c>
+      <c r="H388">
+        <v>15</v>
+      </c>
+      <c r="I388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <f t="shared" si="14"/>
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E389">
+        <v>19.5</v>
+      </c>
+      <c r="F389">
+        <v>9</v>
+      </c>
+      <c r="G389">
+        <v>120</v>
+      </c>
+      <c r="H389">
+        <v>16</v>
+      </c>
+      <c r="I389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
+        <f t="shared" si="14"/>
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>26</v>
+      </c>
+      <c r="C390">
+        <v>7</v>
+      </c>
+      <c r="D390" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E390">
+        <v>27</v>
+      </c>
+      <c r="F390">
+        <v>11</v>
+      </c>
+      <c r="G390">
+        <v>120</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>26</v>
+      </c>
+      <c r="C391">
+        <v>7</v>
+      </c>
+      <c r="D391" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E391">
+        <v>27</v>
+      </c>
+      <c r="F391">
+        <v>11</v>
+      </c>
+      <c r="G391">
+        <v>120</v>
+      </c>
+      <c r="H391">
+        <v>2</v>
+      </c>
+      <c r="I391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
+        <f t="shared" si="14"/>
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>26</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+      <c r="D392" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E392">
+        <v>27</v>
+      </c>
+      <c r="F392">
+        <v>11</v>
+      </c>
+      <c r="G392">
+        <v>120</v>
+      </c>
+      <c r="H392">
+        <v>3</v>
+      </c>
+      <c r="I392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <f t="shared" si="14"/>
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>26</v>
+      </c>
+      <c r="C393">
+        <v>7</v>
+      </c>
+      <c r="D393" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E393">
+        <v>27</v>
+      </c>
+      <c r="F393">
+        <v>11</v>
+      </c>
+      <c r="G393">
+        <v>120</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
+        <f t="shared" si="14"/>
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>26</v>
+      </c>
+      <c r="C394">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E394">
+        <v>27</v>
+      </c>
+      <c r="F394">
+        <v>11</v>
+      </c>
+      <c r="G394">
+        <v>120</v>
+      </c>
+      <c r="H394">
+        <v>5</v>
+      </c>
+      <c r="I394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <f t="shared" si="14"/>
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>26</v>
+      </c>
+      <c r="C395">
+        <v>7</v>
+      </c>
+      <c r="D395" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E395">
+        <v>27</v>
+      </c>
+      <c r="F395">
+        <v>11</v>
+      </c>
+      <c r="G395">
+        <v>120</v>
+      </c>
+      <c r="H395">
+        <v>6</v>
+      </c>
+      <c r="I395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
+        <f t="shared" si="14"/>
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>26</v>
+      </c>
+      <c r="C396">
+        <v>7</v>
+      </c>
+      <c r="D396" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E396">
+        <v>27</v>
+      </c>
+      <c r="F396">
+        <v>11</v>
+      </c>
+      <c r="G396">
+        <v>120</v>
+      </c>
+      <c r="H396">
+        <v>7</v>
+      </c>
+      <c r="I396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <f t="shared" si="14"/>
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397">
+        <v>7</v>
+      </c>
+      <c r="D397" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E397">
+        <v>27</v>
+      </c>
+      <c r="F397">
+        <v>11</v>
+      </c>
+      <c r="G397">
+        <v>120</v>
+      </c>
+      <c r="H397">
+        <v>8</v>
+      </c>
+      <c r="I397" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695E3414-FC92-4A68-A4E0-92E123C75FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FF623-F5FD-4B39-A4F2-15A0F6FD3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9CF9D-18EF-4E6C-9F32-F7B653F1E1C8}">
   <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,7 +2648,9 @@
       <c r="G3" s="15">
         <v>39.5</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="15">
+        <v>39.5</v>
+      </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -2828,7 +2830,9 @@
       <c r="G9" s="15">
         <v>29.5</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="15">
+        <v>29.5</v>
+      </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2847,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
   <dimension ref="A1:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I340" sqref="I340"/>
     </sheetView>
   </sheetViews>
@@ -12856,7 +12860,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <f>A333+1</f>
+        <f t="shared" ref="A334:A339" si="11">A333+1</f>
         <v>333</v>
       </c>
       <c r="B334" t="s">
@@ -12886,7 +12890,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <f>A334+1</f>
+        <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="B335" t="s">
@@ -12916,7 +12920,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <f>A335+1</f>
+        <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="B336" t="s">
@@ -12946,7 +12950,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <f>A336+1</f>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="B337" t="s">
@@ -12976,7 +12980,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <f>A337+1</f>
+        <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="B338" t="s">
@@ -13006,7 +13010,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <f>A338+1</f>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="B339" t="s">

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958FF623-F5FD-4B39-A4F2-15A0F6FD3E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA2678D-0B90-4E19-B9BD-781DE3B1BDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="405" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="42">
   <si>
     <t>Бицепс</t>
   </si>
@@ -1530,8 +1530,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I339" totalsRowShown="0">
-  <autoFilter ref="A1:I339" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}" name="Таблица1" displayName="Таблица1" ref="A1:I433" totalsRowShown="0">
+  <autoFilter ref="A1:I433" xr:uid="{7956F7E7-DA65-4E74-84B2-16EC17067590}"/>
   <tableColumns count="9">
     <tableColumn id="9" xr3:uid="{342D2955-6B38-46F9-8A9D-5C4B60450004}" name="№" dataDxfId="1">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
@@ -2577,8 +2577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9CF9D-18EF-4E6C-9F32-F7B653F1E1C8}">
   <dimension ref="A2:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,9 +2648,7 @@
       <c r="G3" s="15">
         <v>39.5</v>
       </c>
-      <c r="H3" s="15">
-        <v>39.5</v>
-      </c>
+      <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
@@ -2830,9 +2828,7 @@
       <c r="G9" s="15">
         <v>29.5</v>
       </c>
-      <c r="H9" s="15">
-        <v>29.5</v>
-      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -2849,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
-  <dimension ref="A1:J339"/>
+  <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I340" sqref="I340"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F433" sqref="F433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13038,6 +13034,2823 @@
         <v>7</v>
       </c>
     </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <f t="shared" ref="A340:A367" si="12">A339+1</f>
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>32</v>
+      </c>
+      <c r="C340">
+        <v>7</v>
+      </c>
+      <c r="D340" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E340">
+        <v>24.5</v>
+      </c>
+      <c r="F340">
+        <v>10</v>
+      </c>
+      <c r="G340">
+        <v>120</v>
+      </c>
+      <c r="H340">
+        <v>1</v>
+      </c>
+      <c r="I340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <f t="shared" si="12"/>
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>32</v>
+      </c>
+      <c r="C341">
+        <v>7</v>
+      </c>
+      <c r="D341" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E341">
+        <v>24.5</v>
+      </c>
+      <c r="F341">
+        <v>10</v>
+      </c>
+      <c r="G341">
+        <v>120</v>
+      </c>
+      <c r="H341">
+        <v>2</v>
+      </c>
+      <c r="I341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <f t="shared" si="12"/>
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>32</v>
+      </c>
+      <c r="C342">
+        <v>7</v>
+      </c>
+      <c r="D342" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E342">
+        <v>24.5</v>
+      </c>
+      <c r="F342">
+        <v>10</v>
+      </c>
+      <c r="G342">
+        <v>120</v>
+      </c>
+      <c r="H342">
+        <v>3</v>
+      </c>
+      <c r="I342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <f t="shared" si="12"/>
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>32</v>
+      </c>
+      <c r="C343">
+        <v>7</v>
+      </c>
+      <c r="D343" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E343">
+        <v>24.5</v>
+      </c>
+      <c r="F343">
+        <v>11</v>
+      </c>
+      <c r="G343">
+        <v>120</v>
+      </c>
+      <c r="H343">
+        <v>4</v>
+      </c>
+      <c r="I343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <f t="shared" si="12"/>
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>32</v>
+      </c>
+      <c r="C344">
+        <v>7</v>
+      </c>
+      <c r="D344" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E344">
+        <v>19.5</v>
+      </c>
+      <c r="F344">
+        <v>10</v>
+      </c>
+      <c r="G344">
+        <v>120</v>
+      </c>
+      <c r="H344">
+        <v>5</v>
+      </c>
+      <c r="I344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <f t="shared" si="12"/>
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>32</v>
+      </c>
+      <c r="C345">
+        <v>7</v>
+      </c>
+      <c r="D345" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E345">
+        <v>19.5</v>
+      </c>
+      <c r="F345">
+        <v>10</v>
+      </c>
+      <c r="G345">
+        <v>120</v>
+      </c>
+      <c r="H345">
+        <v>6</v>
+      </c>
+      <c r="I345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <f t="shared" si="12"/>
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>32</v>
+      </c>
+      <c r="C346">
+        <v>7</v>
+      </c>
+      <c r="D346" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E346">
+        <v>19.5</v>
+      </c>
+      <c r="F346">
+        <v>10</v>
+      </c>
+      <c r="G346">
+        <v>120</v>
+      </c>
+      <c r="H346">
+        <v>7</v>
+      </c>
+      <c r="I346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <f t="shared" si="12"/>
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>32</v>
+      </c>
+      <c r="C347">
+        <v>7</v>
+      </c>
+      <c r="D347" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E347">
+        <v>19.5</v>
+      </c>
+      <c r="F347">
+        <v>10</v>
+      </c>
+      <c r="G347">
+        <v>120</v>
+      </c>
+      <c r="H347">
+        <v>8</v>
+      </c>
+      <c r="I347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <f t="shared" si="12"/>
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>32</v>
+      </c>
+      <c r="C348">
+        <v>7</v>
+      </c>
+      <c r="D348" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E348">
+        <v>17</v>
+      </c>
+      <c r="F348">
+        <v>10</v>
+      </c>
+      <c r="G348">
+        <v>120</v>
+      </c>
+      <c r="H348">
+        <v>9</v>
+      </c>
+      <c r="I348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <f t="shared" si="12"/>
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>32</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E349">
+        <v>17</v>
+      </c>
+      <c r="F349">
+        <v>10</v>
+      </c>
+      <c r="G349">
+        <v>120</v>
+      </c>
+      <c r="H349">
+        <v>10</v>
+      </c>
+      <c r="I349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <f t="shared" si="12"/>
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>32</v>
+      </c>
+      <c r="C350">
+        <v>7</v>
+      </c>
+      <c r="D350" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E350">
+        <v>17</v>
+      </c>
+      <c r="F350">
+        <v>10</v>
+      </c>
+      <c r="G350">
+        <v>120</v>
+      </c>
+      <c r="H350">
+        <v>11</v>
+      </c>
+      <c r="I350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>32</v>
+      </c>
+      <c r="C351">
+        <v>7</v>
+      </c>
+      <c r="D351" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E351">
+        <v>17</v>
+      </c>
+      <c r="F351">
+        <v>11</v>
+      </c>
+      <c r="G351">
+        <v>120</v>
+      </c>
+      <c r="H351">
+        <v>12</v>
+      </c>
+      <c r="I351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <f t="shared" si="12"/>
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>32</v>
+      </c>
+      <c r="C352">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E352">
+        <v>14.5</v>
+      </c>
+      <c r="F352">
+        <v>10</v>
+      </c>
+      <c r="G352">
+        <v>120</v>
+      </c>
+      <c r="H352">
+        <v>13</v>
+      </c>
+      <c r="I352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <f t="shared" si="12"/>
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>32</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
+      </c>
+      <c r="D353" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E353">
+        <v>14.5</v>
+      </c>
+      <c r="F353">
+        <v>10</v>
+      </c>
+      <c r="G353">
+        <v>120</v>
+      </c>
+      <c r="H353">
+        <v>14</v>
+      </c>
+      <c r="I353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <f t="shared" si="12"/>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>32</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+      <c r="D354" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E354">
+        <v>14.5</v>
+      </c>
+      <c r="F354">
+        <v>10</v>
+      </c>
+      <c r="G354">
+        <v>120</v>
+      </c>
+      <c r="H354">
+        <v>15</v>
+      </c>
+      <c r="I354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <f t="shared" si="12"/>
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>32</v>
+      </c>
+      <c r="C355">
+        <v>7</v>
+      </c>
+      <c r="D355" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E355">
+        <v>14.5</v>
+      </c>
+      <c r="F355">
+        <v>12</v>
+      </c>
+      <c r="G355">
+        <v>120</v>
+      </c>
+      <c r="H355">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <f t="shared" si="12"/>
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>30</v>
+      </c>
+      <c r="C356">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E356">
+        <v>7.5</v>
+      </c>
+      <c r="F356">
+        <v>10</v>
+      </c>
+      <c r="G356">
+        <v>120</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <f t="shared" si="12"/>
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>30</v>
+      </c>
+      <c r="C357">
+        <v>7</v>
+      </c>
+      <c r="D357" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E357">
+        <v>7.5</v>
+      </c>
+      <c r="F357">
+        <v>10</v>
+      </c>
+      <c r="G357">
+        <v>120</v>
+      </c>
+      <c r="H357">
+        <v>2</v>
+      </c>
+      <c r="I357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <f t="shared" si="12"/>
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>30</v>
+      </c>
+      <c r="C358">
+        <v>7</v>
+      </c>
+      <c r="D358" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E358">
+        <v>7.5</v>
+      </c>
+      <c r="F358">
+        <v>9</v>
+      </c>
+      <c r="G358">
+        <v>120</v>
+      </c>
+      <c r="H358">
+        <v>3</v>
+      </c>
+      <c r="I358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <f t="shared" si="12"/>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>30</v>
+      </c>
+      <c r="C359">
+        <v>7</v>
+      </c>
+      <c r="D359" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E359">
+        <v>7.5</v>
+      </c>
+      <c r="F359">
+        <v>6</v>
+      </c>
+      <c r="G359">
+        <v>120</v>
+      </c>
+      <c r="H359">
+        <v>4</v>
+      </c>
+      <c r="I359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <f t="shared" si="12"/>
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>30</v>
+      </c>
+      <c r="C360">
+        <v>7</v>
+      </c>
+      <c r="D360" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E360">
+        <v>2.5</v>
+      </c>
+      <c r="F360">
+        <v>8</v>
+      </c>
+      <c r="G360">
+        <v>120</v>
+      </c>
+      <c r="H360">
+        <v>5</v>
+      </c>
+      <c r="I360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <f t="shared" si="12"/>
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>30</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E361">
+        <v>2.5</v>
+      </c>
+      <c r="F361">
+        <v>6</v>
+      </c>
+      <c r="G361">
+        <v>120</v>
+      </c>
+      <c r="H361">
+        <v>6</v>
+      </c>
+      <c r="I361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <f t="shared" si="12"/>
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+      <c r="G362">
+        <v>120</v>
+      </c>
+      <c r="H362">
+        <v>7</v>
+      </c>
+      <c r="I362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <f t="shared" si="12"/>
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>7</v>
+      </c>
+      <c r="D363" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>8</v>
+      </c>
+      <c r="G363">
+        <v>120</v>
+      </c>
+      <c r="H363">
+        <v>8</v>
+      </c>
+      <c r="I363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <f t="shared" si="12"/>
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+      <c r="D364" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>8</v>
+      </c>
+      <c r="G364">
+        <v>120</v>
+      </c>
+      <c r="H364">
+        <v>9</v>
+      </c>
+      <c r="I364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <f t="shared" si="12"/>
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>30</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>8</v>
+      </c>
+      <c r="G365">
+        <v>120</v>
+      </c>
+      <c r="H365">
+        <v>10</v>
+      </c>
+      <c r="I365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <f t="shared" si="12"/>
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>7</v>
+      </c>
+      <c r="D366" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>8</v>
+      </c>
+      <c r="G366">
+        <v>120</v>
+      </c>
+      <c r="H366">
+        <v>11</v>
+      </c>
+      <c r="I366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <f t="shared" si="12"/>
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>30</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367" s="1">
+        <v>44998</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>8</v>
+      </c>
+      <c r="G367">
+        <v>120</v>
+      </c>
+      <c r="H367">
+        <v>12</v>
+      </c>
+      <c r="I367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <f t="shared" ref="A368:A373" si="13">A367+1</f>
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>31</v>
+      </c>
+      <c r="C368">
+        <v>7</v>
+      </c>
+      <c r="D368" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368">
+        <v>3</v>
+      </c>
+      <c r="G368">
+        <v>120</v>
+      </c>
+      <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <f t="shared" si="13"/>
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>31</v>
+      </c>
+      <c r="C369">
+        <v>7</v>
+      </c>
+      <c r="D369" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+      <c r="G369">
+        <v>120</v>
+      </c>
+      <c r="H369">
+        <v>2</v>
+      </c>
+      <c r="I369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <f t="shared" si="13"/>
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>31</v>
+      </c>
+      <c r="C370">
+        <v>7</v>
+      </c>
+      <c r="D370" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>120</v>
+      </c>
+      <c r="H370">
+        <v>3</v>
+      </c>
+      <c r="I370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <f t="shared" si="13"/>
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>31</v>
+      </c>
+      <c r="C371">
+        <v>7</v>
+      </c>
+      <c r="D371" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371">
+        <v>3</v>
+      </c>
+      <c r="G371">
+        <v>120</v>
+      </c>
+      <c r="H371">
+        <v>4</v>
+      </c>
+      <c r="I371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <f t="shared" si="13"/>
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>31</v>
+      </c>
+      <c r="C372">
+        <v>7</v>
+      </c>
+      <c r="D372" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>3</v>
+      </c>
+      <c r="G372">
+        <v>120</v>
+      </c>
+      <c r="H372">
+        <v>5</v>
+      </c>
+      <c r="I372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <f t="shared" si="13"/>
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>31</v>
+      </c>
+      <c r="C373">
+        <v>7</v>
+      </c>
+      <c r="D373" s="1">
+        <v>44999</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
+      <c r="F373">
+        <v>3</v>
+      </c>
+      <c r="G373">
+        <v>120</v>
+      </c>
+      <c r="H373">
+        <v>6</v>
+      </c>
+      <c r="I373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <f t="shared" ref="A374:A397" si="14">A373+1</f>
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>33</v>
+      </c>
+      <c r="C374">
+        <v>7</v>
+      </c>
+      <c r="D374" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E374">
+        <v>27</v>
+      </c>
+      <c r="F374">
+        <v>10</v>
+      </c>
+      <c r="G374">
+        <v>120</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <f t="shared" si="14"/>
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>33</v>
+      </c>
+      <c r="C375">
+        <v>7</v>
+      </c>
+      <c r="D375" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E375">
+        <v>27</v>
+      </c>
+      <c r="F375">
+        <v>10</v>
+      </c>
+      <c r="G375">
+        <v>120</v>
+      </c>
+      <c r="H375">
+        <v>2</v>
+      </c>
+      <c r="I375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <f t="shared" si="14"/>
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>33</v>
+      </c>
+      <c r="C376">
+        <v>7</v>
+      </c>
+      <c r="D376" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E376">
+        <v>27</v>
+      </c>
+      <c r="F376">
+        <v>10</v>
+      </c>
+      <c r="G376">
+        <v>120</v>
+      </c>
+      <c r="H376">
+        <v>3</v>
+      </c>
+      <c r="I376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <f t="shared" si="14"/>
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>33</v>
+      </c>
+      <c r="C377">
+        <v>7</v>
+      </c>
+      <c r="D377" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E377">
+        <v>27</v>
+      </c>
+      <c r="F377">
+        <v>10</v>
+      </c>
+      <c r="G377">
+        <v>120</v>
+      </c>
+      <c r="H377">
+        <v>4</v>
+      </c>
+      <c r="I377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <f t="shared" si="14"/>
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>33</v>
+      </c>
+      <c r="C378">
+        <v>7</v>
+      </c>
+      <c r="D378" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E378">
+        <v>22</v>
+      </c>
+      <c r="F378">
+        <v>10</v>
+      </c>
+      <c r="G378">
+        <v>120</v>
+      </c>
+      <c r="H378">
+        <v>5</v>
+      </c>
+      <c r="I378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <f t="shared" si="14"/>
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>33</v>
+      </c>
+      <c r="C379">
+        <v>7</v>
+      </c>
+      <c r="D379" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E379">
+        <v>22</v>
+      </c>
+      <c r="F379">
+        <v>10</v>
+      </c>
+      <c r="G379">
+        <v>120</v>
+      </c>
+      <c r="H379">
+        <v>6</v>
+      </c>
+      <c r="I379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <f t="shared" si="14"/>
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>33</v>
+      </c>
+      <c r="C380">
+        <v>7</v>
+      </c>
+      <c r="D380" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E380">
+        <v>22</v>
+      </c>
+      <c r="F380">
+        <v>10</v>
+      </c>
+      <c r="G380">
+        <v>120</v>
+      </c>
+      <c r="H380">
+        <v>7</v>
+      </c>
+      <c r="I380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <f t="shared" si="14"/>
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>33</v>
+      </c>
+      <c r="C381">
+        <v>7</v>
+      </c>
+      <c r="D381" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E381">
+        <v>22</v>
+      </c>
+      <c r="F381">
+        <v>12</v>
+      </c>
+      <c r="G381">
+        <v>120</v>
+      </c>
+      <c r="H381">
+        <v>8</v>
+      </c>
+      <c r="I381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
+        <f t="shared" si="14"/>
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>33</v>
+      </c>
+      <c r="C382">
+        <v>7</v>
+      </c>
+      <c r="D382" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E382">
+        <v>19.5</v>
+      </c>
+      <c r="F382">
+        <v>10</v>
+      </c>
+      <c r="G382">
+        <v>120</v>
+      </c>
+      <c r="H382">
+        <v>9</v>
+      </c>
+      <c r="I382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
+        <f t="shared" si="14"/>
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>33</v>
+      </c>
+      <c r="C383">
+        <v>7</v>
+      </c>
+      <c r="D383" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E383">
+        <v>19.5</v>
+      </c>
+      <c r="F383">
+        <v>10</v>
+      </c>
+      <c r="G383">
+        <v>120</v>
+      </c>
+      <c r="H383">
+        <v>10</v>
+      </c>
+      <c r="I383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
+        <f t="shared" si="14"/>
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>33</v>
+      </c>
+      <c r="C384">
+        <v>7</v>
+      </c>
+      <c r="D384" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E384">
+        <v>19.5</v>
+      </c>
+      <c r="F384">
+        <v>10</v>
+      </c>
+      <c r="G384">
+        <v>120</v>
+      </c>
+      <c r="H384">
+        <v>11</v>
+      </c>
+      <c r="I384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
+        <f t="shared" si="14"/>
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>33</v>
+      </c>
+      <c r="C385">
+        <v>7</v>
+      </c>
+      <c r="D385" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E385">
+        <v>19.5</v>
+      </c>
+      <c r="F385">
+        <v>13</v>
+      </c>
+      <c r="G385">
+        <v>120</v>
+      </c>
+      <c r="H385">
+        <v>12</v>
+      </c>
+      <c r="I385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
+        <f t="shared" si="14"/>
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386">
+        <v>7</v>
+      </c>
+      <c r="D386" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E386">
+        <v>19.5</v>
+      </c>
+      <c r="F386">
+        <v>10</v>
+      </c>
+      <c r="G386">
+        <v>120</v>
+      </c>
+      <c r="H386">
+        <v>13</v>
+      </c>
+      <c r="I386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
+        <f t="shared" si="14"/>
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387">
+        <v>7</v>
+      </c>
+      <c r="D387" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E387">
+        <v>19.5</v>
+      </c>
+      <c r="F387">
+        <v>10</v>
+      </c>
+      <c r="G387">
+        <v>120</v>
+      </c>
+      <c r="H387">
+        <v>14</v>
+      </c>
+      <c r="I387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
+        <f t="shared" si="14"/>
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388">
+        <v>7</v>
+      </c>
+      <c r="D388" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E388">
+        <v>19.5</v>
+      </c>
+      <c r="F388">
+        <v>10</v>
+      </c>
+      <c r="G388">
+        <v>120</v>
+      </c>
+      <c r="H388">
+        <v>15</v>
+      </c>
+      <c r="I388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
+        <f t="shared" si="14"/>
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389">
+        <v>7</v>
+      </c>
+      <c r="D389" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E389">
+        <v>19.5</v>
+      </c>
+      <c r="F389">
+        <v>9</v>
+      </c>
+      <c r="G389">
+        <v>120</v>
+      </c>
+      <c r="H389">
+        <v>16</v>
+      </c>
+      <c r="I389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
+        <f t="shared" si="14"/>
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>26</v>
+      </c>
+      <c r="C390">
+        <v>7</v>
+      </c>
+      <c r="D390" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E390">
+        <v>27</v>
+      </c>
+      <c r="F390">
+        <v>11</v>
+      </c>
+      <c r="G390">
+        <v>120</v>
+      </c>
+      <c r="H390">
+        <v>1</v>
+      </c>
+      <c r="I390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
+        <f t="shared" si="14"/>
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>26</v>
+      </c>
+      <c r="C391">
+        <v>7</v>
+      </c>
+      <c r="D391" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E391">
+        <v>27</v>
+      </c>
+      <c r="F391">
+        <v>11</v>
+      </c>
+      <c r="G391">
+        <v>120</v>
+      </c>
+      <c r="H391">
+        <v>2</v>
+      </c>
+      <c r="I391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
+        <f t="shared" si="14"/>
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>26</v>
+      </c>
+      <c r="C392">
+        <v>7</v>
+      </c>
+      <c r="D392" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E392">
+        <v>27</v>
+      </c>
+      <c r="F392">
+        <v>11</v>
+      </c>
+      <c r="G392">
+        <v>120</v>
+      </c>
+      <c r="H392">
+        <v>3</v>
+      </c>
+      <c r="I392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
+        <f t="shared" si="14"/>
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>26</v>
+      </c>
+      <c r="C393">
+        <v>7</v>
+      </c>
+      <c r="D393" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E393">
+        <v>27</v>
+      </c>
+      <c r="F393">
+        <v>11</v>
+      </c>
+      <c r="G393">
+        <v>120</v>
+      </c>
+      <c r="H393">
+        <v>4</v>
+      </c>
+      <c r="I393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
+        <f t="shared" si="14"/>
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>26</v>
+      </c>
+      <c r="C394">
+        <v>7</v>
+      </c>
+      <c r="D394" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E394">
+        <v>27</v>
+      </c>
+      <c r="F394">
+        <v>11</v>
+      </c>
+      <c r="G394">
+        <v>120</v>
+      </c>
+      <c r="H394">
+        <v>5</v>
+      </c>
+      <c r="I394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
+        <f t="shared" si="14"/>
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>26</v>
+      </c>
+      <c r="C395">
+        <v>7</v>
+      </c>
+      <c r="D395" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E395">
+        <v>27</v>
+      </c>
+      <c r="F395">
+        <v>11</v>
+      </c>
+      <c r="G395">
+        <v>120</v>
+      </c>
+      <c r="H395">
+        <v>6</v>
+      </c>
+      <c r="I395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
+        <f t="shared" si="14"/>
+        <v>395</v>
+      </c>
+      <c r="B396" t="s">
+        <v>26</v>
+      </c>
+      <c r="C396">
+        <v>7</v>
+      </c>
+      <c r="D396" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E396">
+        <v>27</v>
+      </c>
+      <c r="F396">
+        <v>11</v>
+      </c>
+      <c r="G396">
+        <v>120</v>
+      </c>
+      <c r="H396">
+        <v>7</v>
+      </c>
+      <c r="I396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
+        <f t="shared" si="14"/>
+        <v>396</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+      <c r="C397">
+        <v>7</v>
+      </c>
+      <c r="D397" s="1">
+        <v>45001</v>
+      </c>
+      <c r="E397">
+        <v>27</v>
+      </c>
+      <c r="F397">
+        <v>11</v>
+      </c>
+      <c r="G397">
+        <v>120</v>
+      </c>
+      <c r="H397">
+        <v>8</v>
+      </c>
+      <c r="I397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
+        <f t="shared" ref="A398:A403" si="15">A397+1</f>
+        <v>397</v>
+      </c>
+      <c r="B398" t="s">
+        <v>31</v>
+      </c>
+      <c r="C398">
+        <v>7</v>
+      </c>
+      <c r="D398" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E398">
+        <v>0</v>
+      </c>
+      <c r="F398">
+        <v>4</v>
+      </c>
+      <c r="G398">
+        <v>120</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
+        <f t="shared" si="15"/>
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>31</v>
+      </c>
+      <c r="C399">
+        <v>7</v>
+      </c>
+      <c r="D399" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>4</v>
+      </c>
+      <c r="G399">
+        <v>120</v>
+      </c>
+      <c r="H399">
+        <v>2</v>
+      </c>
+      <c r="I399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
+        <f t="shared" si="15"/>
+        <v>399</v>
+      </c>
+      <c r="B400" t="s">
+        <v>31</v>
+      </c>
+      <c r="C400">
+        <v>7</v>
+      </c>
+      <c r="D400" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
+      <c r="F400">
+        <v>4</v>
+      </c>
+      <c r="G400">
+        <v>120</v>
+      </c>
+      <c r="H400">
+        <v>3</v>
+      </c>
+      <c r="I400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
+        <f t="shared" si="15"/>
+        <v>400</v>
+      </c>
+      <c r="B401" t="s">
+        <v>31</v>
+      </c>
+      <c r="C401">
+        <v>7</v>
+      </c>
+      <c r="D401" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>4</v>
+      </c>
+      <c r="G401">
+        <v>120</v>
+      </c>
+      <c r="H401">
+        <v>4</v>
+      </c>
+      <c r="I401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
+        <f t="shared" si="15"/>
+        <v>401</v>
+      </c>
+      <c r="B402" t="s">
+        <v>31</v>
+      </c>
+      <c r="C402">
+        <v>7</v>
+      </c>
+      <c r="D402" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E402">
+        <v>0</v>
+      </c>
+      <c r="F402">
+        <v>4</v>
+      </c>
+      <c r="G402">
+        <v>120</v>
+      </c>
+      <c r="H402">
+        <v>5</v>
+      </c>
+      <c r="I402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
+        <f t="shared" si="15"/>
+        <v>402</v>
+      </c>
+      <c r="B403" t="s">
+        <v>31</v>
+      </c>
+      <c r="C403">
+        <v>7</v>
+      </c>
+      <c r="D403" s="1">
+        <v>45002</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>4</v>
+      </c>
+      <c r="G403">
+        <v>120</v>
+      </c>
+      <c r="H403">
+        <v>6</v>
+      </c>
+      <c r="I403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
+        <f t="shared" ref="A404:A419" si="16">A403+1</f>
+        <v>403</v>
+      </c>
+      <c r="B404" t="s">
+        <v>28</v>
+      </c>
+      <c r="C404">
+        <v>7</v>
+      </c>
+      <c r="D404" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E404">
+        <v>24.5</v>
+      </c>
+      <c r="F404">
+        <v>10</v>
+      </c>
+      <c r="G404">
+        <v>120</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
+        <f t="shared" si="16"/>
+        <v>404</v>
+      </c>
+      <c r="B405" t="s">
+        <v>28</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E405">
+        <v>24.5</v>
+      </c>
+      <c r="F405">
+        <v>10</v>
+      </c>
+      <c r="G405">
+        <v>120</v>
+      </c>
+      <c r="H405">
+        <v>2</v>
+      </c>
+      <c r="I405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
+        <f t="shared" si="16"/>
+        <v>405</v>
+      </c>
+      <c r="B406" t="s">
+        <v>28</v>
+      </c>
+      <c r="C406">
+        <v>7</v>
+      </c>
+      <c r="D406" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E406">
+        <v>24.5</v>
+      </c>
+      <c r="F406">
+        <v>10</v>
+      </c>
+      <c r="G406">
+        <v>120</v>
+      </c>
+      <c r="H406">
+        <v>3</v>
+      </c>
+      <c r="I406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
+        <f t="shared" si="16"/>
+        <v>406</v>
+      </c>
+      <c r="B407" t="s">
+        <v>28</v>
+      </c>
+      <c r="C407">
+        <v>7</v>
+      </c>
+      <c r="D407" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E407">
+        <v>24.5</v>
+      </c>
+      <c r="F407">
+        <v>11</v>
+      </c>
+      <c r="G407">
+        <v>120</v>
+      </c>
+      <c r="H407">
+        <v>4</v>
+      </c>
+      <c r="I407" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
+        <f t="shared" si="16"/>
+        <v>407</v>
+      </c>
+      <c r="B408" t="s">
+        <v>28</v>
+      </c>
+      <c r="C408">
+        <v>7</v>
+      </c>
+      <c r="D408" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E408">
+        <v>19.5</v>
+      </c>
+      <c r="F408">
+        <v>10</v>
+      </c>
+      <c r="G408">
+        <v>120</v>
+      </c>
+      <c r="H408">
+        <v>5</v>
+      </c>
+      <c r="I408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
+        <f t="shared" si="16"/>
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>28</v>
+      </c>
+      <c r="C409">
+        <v>7</v>
+      </c>
+      <c r="D409" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E409">
+        <v>19.5</v>
+      </c>
+      <c r="F409">
+        <v>10</v>
+      </c>
+      <c r="G409">
+        <v>120</v>
+      </c>
+      <c r="H409">
+        <v>6</v>
+      </c>
+      <c r="I409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
+        <f t="shared" si="16"/>
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>28</v>
+      </c>
+      <c r="C410">
+        <v>7</v>
+      </c>
+      <c r="D410" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E410">
+        <v>19.5</v>
+      </c>
+      <c r="F410">
+        <v>10</v>
+      </c>
+      <c r="G410">
+        <v>120</v>
+      </c>
+      <c r="H410">
+        <v>7</v>
+      </c>
+      <c r="I410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
+        <f t="shared" si="16"/>
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>28</v>
+      </c>
+      <c r="C411">
+        <v>7</v>
+      </c>
+      <c r="D411" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E411">
+        <v>19.5</v>
+      </c>
+      <c r="F411">
+        <v>11</v>
+      </c>
+      <c r="G411">
+        <v>120</v>
+      </c>
+      <c r="H411">
+        <v>8</v>
+      </c>
+      <c r="I411" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
+        <f t="shared" si="16"/>
+        <v>411</v>
+      </c>
+      <c r="B412" t="s">
+        <v>28</v>
+      </c>
+      <c r="C412">
+        <v>7</v>
+      </c>
+      <c r="D412" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E412">
+        <v>17</v>
+      </c>
+      <c r="F412">
+        <v>10</v>
+      </c>
+      <c r="G412">
+        <v>120</v>
+      </c>
+      <c r="H412">
+        <v>9</v>
+      </c>
+      <c r="I412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
+        <f t="shared" si="16"/>
+        <v>412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>28</v>
+      </c>
+      <c r="C413">
+        <v>7</v>
+      </c>
+      <c r="D413" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E413">
+        <v>17</v>
+      </c>
+      <c r="F413">
+        <v>10</v>
+      </c>
+      <c r="G413">
+        <v>120</v>
+      </c>
+      <c r="H413">
+        <v>10</v>
+      </c>
+      <c r="I413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
+        <f t="shared" si="16"/>
+        <v>413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>28</v>
+      </c>
+      <c r="C414">
+        <v>7</v>
+      </c>
+      <c r="D414" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E414">
+        <v>17</v>
+      </c>
+      <c r="F414">
+        <v>10</v>
+      </c>
+      <c r="G414">
+        <v>120</v>
+      </c>
+      <c r="H414">
+        <v>11</v>
+      </c>
+      <c r="I414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
+        <f t="shared" si="16"/>
+        <v>414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>28</v>
+      </c>
+      <c r="C415">
+        <v>7</v>
+      </c>
+      <c r="D415" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E415">
+        <v>17</v>
+      </c>
+      <c r="F415">
+        <v>11</v>
+      </c>
+      <c r="G415">
+        <v>120</v>
+      </c>
+      <c r="H415">
+        <v>12</v>
+      </c>
+      <c r="I415" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
+        <f t="shared" si="16"/>
+        <v>415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>28</v>
+      </c>
+      <c r="C416">
+        <v>7</v>
+      </c>
+      <c r="D416" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E416">
+        <v>14.5</v>
+      </c>
+      <c r="F416">
+        <v>10</v>
+      </c>
+      <c r="G416">
+        <v>120</v>
+      </c>
+      <c r="H416">
+        <v>13</v>
+      </c>
+      <c r="I416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
+        <f t="shared" si="16"/>
+        <v>416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>28</v>
+      </c>
+      <c r="C417">
+        <v>7</v>
+      </c>
+      <c r="D417" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E417">
+        <v>14.5</v>
+      </c>
+      <c r="F417">
+        <v>10</v>
+      </c>
+      <c r="G417">
+        <v>120</v>
+      </c>
+      <c r="H417">
+        <v>14</v>
+      </c>
+      <c r="I417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
+        <f t="shared" si="16"/>
+        <v>417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>28</v>
+      </c>
+      <c r="C418">
+        <v>7</v>
+      </c>
+      <c r="D418" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E418">
+        <v>14.5</v>
+      </c>
+      <c r="F418">
+        <v>10</v>
+      </c>
+      <c r="G418">
+        <v>120</v>
+      </c>
+      <c r="H418">
+        <v>15</v>
+      </c>
+      <c r="I418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
+        <f t="shared" si="16"/>
+        <v>418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>28</v>
+      </c>
+      <c r="C419">
+        <v>7</v>
+      </c>
+      <c r="D419" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E419">
+        <v>14.5</v>
+      </c>
+      <c r="F419">
+        <v>12</v>
+      </c>
+      <c r="G419">
+        <v>120</v>
+      </c>
+      <c r="H419">
+        <v>16</v>
+      </c>
+      <c r="I419" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
+        <f t="shared" ref="A420:A433" si="17">A419+1</f>
+        <v>419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>30</v>
+      </c>
+      <c r="C420">
+        <v>7</v>
+      </c>
+      <c r="D420" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>15</v>
+      </c>
+      <c r="G420">
+        <v>120</v>
+      </c>
+      <c r="H420">
+        <v>1</v>
+      </c>
+      <c r="I420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A421" s="4">
+        <f t="shared" si="17"/>
+        <v>420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>30</v>
+      </c>
+      <c r="C421">
+        <v>7</v>
+      </c>
+      <c r="D421" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
+      <c r="F421">
+        <v>15</v>
+      </c>
+      <c r="G421">
+        <v>120</v>
+      </c>
+      <c r="H421">
+        <v>2</v>
+      </c>
+      <c r="I421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A422" s="4">
+        <f t="shared" si="17"/>
+        <v>421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>30</v>
+      </c>
+      <c r="C422">
+        <v>7</v>
+      </c>
+      <c r="D422" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>10</v>
+      </c>
+      <c r="G422">
+        <v>120</v>
+      </c>
+      <c r="H422">
+        <v>3</v>
+      </c>
+      <c r="I422" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A423" s="4">
+        <f t="shared" si="17"/>
+        <v>422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>30</v>
+      </c>
+      <c r="C423">
+        <v>7</v>
+      </c>
+      <c r="D423" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
+      <c r="F423">
+        <v>8</v>
+      </c>
+      <c r="G423">
+        <v>120</v>
+      </c>
+      <c r="H423">
+        <v>4</v>
+      </c>
+      <c r="I423" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424" s="4">
+        <f t="shared" si="17"/>
+        <v>423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>30</v>
+      </c>
+      <c r="C424">
+        <v>7</v>
+      </c>
+      <c r="D424" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>8</v>
+      </c>
+      <c r="G424">
+        <v>120</v>
+      </c>
+      <c r="H424">
+        <v>5</v>
+      </c>
+      <c r="I424" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425" s="4">
+        <f t="shared" si="17"/>
+        <v>424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>30</v>
+      </c>
+      <c r="C425">
+        <v>7</v>
+      </c>
+      <c r="D425" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
+      <c r="F425">
+        <v>7</v>
+      </c>
+      <c r="G425">
+        <v>120</v>
+      </c>
+      <c r="H425">
+        <v>6</v>
+      </c>
+      <c r="I425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426" s="4">
+        <f t="shared" si="17"/>
+        <v>425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>30</v>
+      </c>
+      <c r="C426">
+        <v>7</v>
+      </c>
+      <c r="D426" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>7</v>
+      </c>
+      <c r="G426">
+        <v>120</v>
+      </c>
+      <c r="H426">
+        <v>7</v>
+      </c>
+      <c r="I426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427" s="4">
+        <f t="shared" si="17"/>
+        <v>426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>30</v>
+      </c>
+      <c r="C427">
+        <v>7</v>
+      </c>
+      <c r="D427" s="1">
+        <v>45003</v>
+      </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
+      <c r="F427">
+        <v>7</v>
+      </c>
+      <c r="G427">
+        <v>120</v>
+      </c>
+      <c r="H427">
+        <v>8</v>
+      </c>
+      <c r="I427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A428" s="4">
+        <f t="shared" si="17"/>
+        <v>427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>31</v>
+      </c>
+      <c r="C428">
+        <v>7</v>
+      </c>
+      <c r="D428" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E428">
+        <v>0</v>
+      </c>
+      <c r="F428">
+        <v>5</v>
+      </c>
+      <c r="G428">
+        <v>120</v>
+      </c>
+      <c r="H428">
+        <v>1</v>
+      </c>
+      <c r="I428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A429" s="4">
+        <f t="shared" si="17"/>
+        <v>428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>31</v>
+      </c>
+      <c r="C429">
+        <v>7</v>
+      </c>
+      <c r="D429" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E429">
+        <v>0</v>
+      </c>
+      <c r="F429">
+        <v>5</v>
+      </c>
+      <c r="G429">
+        <v>120</v>
+      </c>
+      <c r="H429">
+        <v>2</v>
+      </c>
+      <c r="I429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A430" s="4">
+        <f t="shared" si="17"/>
+        <v>429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>31</v>
+      </c>
+      <c r="C430">
+        <v>7</v>
+      </c>
+      <c r="D430" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E430">
+        <v>0</v>
+      </c>
+      <c r="F430">
+        <v>5</v>
+      </c>
+      <c r="G430">
+        <v>120</v>
+      </c>
+      <c r="H430">
+        <v>3</v>
+      </c>
+      <c r="I430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A431" s="4">
+        <f t="shared" si="17"/>
+        <v>430</v>
+      </c>
+      <c r="B431" t="s">
+        <v>31</v>
+      </c>
+      <c r="C431">
+        <v>7</v>
+      </c>
+      <c r="D431" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>5</v>
+      </c>
+      <c r="G431">
+        <v>120</v>
+      </c>
+      <c r="H431">
+        <v>4</v>
+      </c>
+      <c r="I431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A432" s="4">
+        <f t="shared" si="17"/>
+        <v>431</v>
+      </c>
+      <c r="B432" t="s">
+        <v>31</v>
+      </c>
+      <c r="C432">
+        <v>7</v>
+      </c>
+      <c r="D432" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E432">
+        <v>0</v>
+      </c>
+      <c r="F432">
+        <v>5</v>
+      </c>
+      <c r="G432">
+        <v>120</v>
+      </c>
+      <c r="H432">
+        <v>5</v>
+      </c>
+      <c r="I432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A433" s="4">
+        <f t="shared" si="17"/>
+        <v>432</v>
+      </c>
+      <c r="B433" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433">
+        <v>7</v>
+      </c>
+      <c r="D433" s="1">
+        <v>45004</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>120</v>
+      </c>
+      <c r="H433">
+        <v>6</v>
+      </c>
+      <c r="I433" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/тренировка.xlsx
+++ b/тренировка.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_progect\training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python project\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA2678D-0B90-4E19-B9BD-781DE3B1BDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D13915F-BD87-4A67-9CC7-73891385A766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="405" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2847,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445D72A8-44E1-4A69-A57F-626BAB12D080}">
   <dimension ref="A1:J433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A422" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F433" sqref="F433"/>
+    <sheetView tabSelected="1" topLeftCell="A413" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15841,6 +15841,9 @@
       <c r="E433">
         <v>0</v>
       </c>
+      <c r="F433">
+        <v>5</v>
+      </c>
       <c r="G433">
         <v>120</v>
       </c>
